--- a/JupyterNotebooks/AvgHW/Alpha3F-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha3F-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,31 +626,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.005289707421419</v>
+        <v>1.003187740967027</v>
       </c>
       <c r="D3">
         <v>0.9741347154470948</v>
       </c>
       <c r="E3">
-        <v>1.003187740967027</v>
+        <v>0.9741347154470948</v>
       </c>
       <c r="F3">
-        <v>1.005289707421419</v>
+        <v>1.00528970742142</v>
       </c>
       <c r="G3">
-        <v>1.00379818931829</v>
+        <v>1.00528970742142</v>
       </c>
       <c r="H3">
         <v>0.9941564755648994</v>
       </c>
       <c r="I3">
+        <v>1.00379818931829</v>
+      </c>
+      <c r="J3">
         <v>1.003384644211949</v>
       </c>
-      <c r="J3">
-        <v>0.9741347154470948</v>
-      </c>
       <c r="K3">
-        <v>1.005289707421419</v>
+        <v>1.00528970742142</v>
       </c>
       <c r="L3">
         <v>1.003187740967027</v>
@@ -713,22 +665,22 @@
         <v>0.9904929773263405</v>
       </c>
       <c r="P3">
-        <v>0.994204054611847</v>
+        <v>0.9942040546118472</v>
       </c>
       <c r="Q3">
         <v>0.994204054611847</v>
       </c>
       <c r="R3">
-        <v>0.9969754678142401</v>
+        <v>0.9969754678142402</v>
       </c>
       <c r="S3">
-        <v>0.9969754678142401</v>
+        <v>0.9969754678142402</v>
       </c>
       <c r="T3">
         <v>0.9973252454884465</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.011530759007626</v>
+        <v>1.005697298906681</v>
       </c>
       <c r="D4">
         <v>0.9510763359764055</v>
       </c>
       <c r="E4">
-        <v>1.005697298906681</v>
+        <v>0.9510763359764055</v>
       </c>
       <c r="F4">
         <v>1.011530759007626</v>
       </c>
       <c r="G4">
-        <v>1.006633282410023</v>
+        <v>1.011530759007626</v>
       </c>
       <c r="H4">
         <v>0.9884501226941569</v>
       </c>
       <c r="I4">
+        <v>1.006633282410023</v>
+      </c>
+      <c r="J4">
         <v>1.006546964288916</v>
-      </c>
-      <c r="J4">
-        <v>0.9510763359764055</v>
       </c>
       <c r="K4">
         <v>1.011530759007626</v>
@@ -790,7 +742,7 @@
         <v>0.9949891272139681</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.018744442229538</v>
+        <v>1.012415007376709</v>
       </c>
       <c r="D5">
         <v>0.9059602991425386</v>
       </c>
       <c r="E5">
-        <v>1.012415007376709</v>
+        <v>0.9059602991425386</v>
       </c>
       <c r="F5">
         <v>1.018744442229538</v>
       </c>
       <c r="G5">
+        <v>1.018744442229538</v>
+      </c>
+      <c r="H5">
+        <v>0.9780103067036826</v>
+      </c>
+      <c r="I5">
         <v>1.015196624279876</v>
       </c>
-      <c r="H5">
-        <v>0.9780103067036827</v>
-      </c>
-      <c r="I5">
+      <c r="J5">
         <v>1.012523824490778</v>
-      </c>
-      <c r="J5">
-        <v>0.9059602991425386</v>
       </c>
       <c r="K5">
         <v>1.018744442229538</v>
@@ -837,22 +789,22 @@
         <v>0.9654618710743103</v>
       </c>
       <c r="P5">
-        <v>0.9790399162495955</v>
+        <v>0.9790399162495954</v>
       </c>
       <c r="Q5">
-        <v>0.9790399162495955</v>
+        <v>0.9790399162495954</v>
       </c>
       <c r="R5">
-        <v>0.9889660477445812</v>
+        <v>0.9889660477445811</v>
       </c>
       <c r="S5">
-        <v>0.9889660477445812</v>
+        <v>0.9889660477445811</v>
       </c>
       <c r="T5">
         <v>0.9904750840371873</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,28 +812,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.026562863678895</v>
+        <v>1.015876567878578</v>
       </c>
       <c r="D6">
         <v>0.8638096861558497</v>
       </c>
       <c r="E6">
-        <v>1.015876567878578</v>
+        <v>0.8638096861558497</v>
       </c>
       <c r="F6">
         <v>1.026562863678895</v>
       </c>
       <c r="G6">
-        <v>1.033422509276644</v>
+        <v>1.026562863678895</v>
       </c>
       <c r="H6">
         <v>0.9667029910773763</v>
       </c>
       <c r="I6">
+        <v>1.033422509276644</v>
+      </c>
+      <c r="J6">
         <v>1.01622395153391</v>
-      </c>
-      <c r="J6">
-        <v>0.8638096861558497</v>
       </c>
       <c r="K6">
         <v>1.026562863678895</v>
@@ -914,7 +866,7 @@
         <v>0.9870997616002088</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,31 +874,31 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9997437942695195</v>
+        <v>1.000766456869952</v>
       </c>
       <c r="D7">
-        <v>0.9989641408427882</v>
+        <v>0.9989641408427885</v>
       </c>
       <c r="E7">
-        <v>1.000766456869952</v>
+        <v>0.9989641408427885</v>
       </c>
       <c r="F7">
-        <v>0.9997437942695195</v>
+        <v>0.9997437942695206</v>
       </c>
       <c r="G7">
+        <v>0.9997437942695206</v>
+      </c>
+      <c r="H7">
+        <v>0.9993417770335403</v>
+      </c>
+      <c r="I7">
         <v>1.0005963108944</v>
       </c>
-      <c r="H7">
-        <v>0.99934177703354</v>
-      </c>
-      <c r="I7">
-        <v>1.000377405060445</v>
-      </c>
       <c r="J7">
-        <v>0.9989641408427882</v>
+        <v>1.000377405060444</v>
       </c>
       <c r="K7">
-        <v>0.9997437942695195</v>
+        <v>0.9997437942695206</v>
       </c>
       <c r="L7">
         <v>1.000766456869952</v>
@@ -958,25 +910,25 @@
         <v>0.9998652988563701</v>
       </c>
       <c r="O7">
-        <v>0.9996907915820934</v>
+        <v>0.9996907915820935</v>
       </c>
       <c r="P7">
-        <v>0.9998247973274199</v>
+        <v>0.9998247973274204</v>
       </c>
       <c r="Q7">
-        <v>0.9998247973274198</v>
+        <v>0.9998247973274204</v>
       </c>
       <c r="R7">
-        <v>0.9998045465629447</v>
+        <v>0.9998045465629455</v>
       </c>
       <c r="S7">
-        <v>0.9998045465629447</v>
+        <v>0.9998045465629455</v>
       </c>
       <c r="T7">
-        <v>0.9999649808284407</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.999964980828441</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +936,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000114602751337</v>
+        <v>1.001747109289765</v>
       </c>
       <c r="D8">
-        <v>0.9968235343965341</v>
+        <v>0.9968235343965338</v>
       </c>
       <c r="E8">
-        <v>1.001747109289765</v>
+        <v>0.9968235343965338</v>
       </c>
       <c r="F8">
-        <v>1.000114602751337</v>
+        <v>1.000114602751336</v>
       </c>
       <c r="G8">
-        <v>1.001358689270314</v>
+        <v>1.000114602751336</v>
       </c>
       <c r="H8">
-        <v>0.9981015328578207</v>
+        <v>0.9981015328578211</v>
       </c>
       <c r="I8">
+        <v>1.001358689270315</v>
+      </c>
+      <c r="J8">
         <v>1.001019759060635</v>
       </c>
-      <c r="J8">
-        <v>0.9968235343965341</v>
-      </c>
       <c r="K8">
-        <v>1.000114602751337</v>
+        <v>1.000114602751336</v>
       </c>
       <c r="L8">
         <v>1.001747109289765</v>
       </c>
       <c r="M8">
-        <v>0.9992853218431493</v>
+        <v>0.9992853218431494</v>
       </c>
       <c r="N8">
-        <v>0.9992853218431493</v>
+        <v>0.9992853218431494</v>
       </c>
       <c r="O8">
-        <v>0.9988907255147064</v>
+        <v>0.9988907255147067</v>
       </c>
       <c r="P8">
-        <v>0.9995617488125451</v>
+        <v>0.9995617488125449</v>
       </c>
       <c r="Q8">
-        <v>0.9995617488125451</v>
+        <v>0.9995617488125449</v>
       </c>
       <c r="R8">
-        <v>0.9996999622972429</v>
+        <v>0.9996999622972427</v>
       </c>
       <c r="S8">
-        <v>0.9996999622972429</v>
+        <v>0.9996999622972427</v>
       </c>
       <c r="T8">
-        <v>0.9998608712710676</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9998608712710677</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,43 +998,43 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.001644542613685</v>
+        <v>1.001621355836493</v>
       </c>
       <c r="D9">
         <v>0.9955545045513703</v>
       </c>
       <c r="E9">
-        <v>1.001621355836493</v>
+        <v>0.9955545045513703</v>
       </c>
       <c r="F9">
-        <v>1.001644542613685</v>
+        <v>1.001644542613686</v>
       </c>
       <c r="G9">
-        <v>1.001411607248095</v>
+        <v>1.001644542613686</v>
       </c>
       <c r="H9">
         <v>0.9974294258030492</v>
       </c>
       <c r="I9">
+        <v>1.001411607248095</v>
+      </c>
+      <c r="J9">
         <v>1.001232936690858</v>
       </c>
-      <c r="J9">
-        <v>0.9955545045513703</v>
-      </c>
       <c r="K9">
-        <v>1.001644542613685</v>
+        <v>1.001644542613686</v>
       </c>
       <c r="L9">
         <v>1.001621355836493</v>
       </c>
       <c r="M9">
-        <v>0.9985879301939317</v>
+        <v>0.9985879301939315</v>
       </c>
       <c r="N9">
-        <v>0.9985879301939317</v>
+        <v>0.9985879301939315</v>
       </c>
       <c r="O9">
-        <v>0.9982017620636375</v>
+        <v>0.9982017620636374</v>
       </c>
       <c r="P9">
         <v>0.9996068010005162</v>
@@ -1100,7 +1052,7 @@
         <v>0.9998157287905919</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.001769290383193</v>
+        <v>1.004386181296131</v>
       </c>
       <c r="D10">
-        <v>0.9903977106874372</v>
+        <v>0.9903977106874371</v>
       </c>
       <c r="E10">
-        <v>1.004386181296131</v>
+        <v>0.9903977106874371</v>
       </c>
       <c r="F10">
         <v>1.001769290383193</v>
       </c>
       <c r="G10">
-        <v>1.003874923888336</v>
+        <v>1.001769290383193</v>
       </c>
       <c r="H10">
         <v>0.994507934488063</v>
       </c>
       <c r="I10">
+        <v>1.003874923888336</v>
+      </c>
+      <c r="J10">
         <v>1.002788149756293</v>
-      </c>
-      <c r="J10">
-        <v>0.9903977106874372</v>
       </c>
       <c r="K10">
         <v>1.001769290383193</v>
@@ -1138,10 +1090,10 @@
         <v>1.004386181296131</v>
       </c>
       <c r="M10">
-        <v>0.9973919459917842</v>
+        <v>0.997391945991784</v>
       </c>
       <c r="N10">
-        <v>0.9973919459917842</v>
+        <v>0.997391945991784</v>
       </c>
       <c r="O10">
         <v>0.9964306088238771</v>
@@ -1153,16 +1105,16 @@
         <v>0.9988510607889204</v>
       </c>
       <c r="R10">
-        <v>0.9995806181874884</v>
+        <v>0.9995806181874886</v>
       </c>
       <c r="S10">
-        <v>0.9995806181874884</v>
+        <v>0.9995806181874886</v>
       </c>
       <c r="T10">
         <v>0.9996206984165754</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,28 +1122,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.007414458754105</v>
+        <v>1.005552455520522</v>
       </c>
       <c r="D11">
         <v>0.9838330261484368</v>
       </c>
       <c r="E11">
-        <v>1.005552455520522</v>
+        <v>0.9838330261484368</v>
       </c>
       <c r="F11">
         <v>1.007414458754105</v>
       </c>
       <c r="G11">
-        <v>1.003632921732498</v>
+        <v>1.007414458754105</v>
       </c>
       <c r="H11">
         <v>0.9904879937852079</v>
       </c>
       <c r="I11">
+        <v>1.003632921732498</v>
+      </c>
+      <c r="J11">
         <v>1.004615272423444</v>
-      </c>
-      <c r="J11">
-        <v>0.9838330261484368</v>
       </c>
       <c r="K11">
         <v>1.007414458754105</v>
@@ -1224,7 +1176,7 @@
         <v>0.9992560213940355</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,28 +1184,28 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.842034489381037</v>
+        <v>1.036560652190417</v>
       </c>
       <c r="D12">
-        <v>0.9627291481855713</v>
+        <v>0.9627291481855711</v>
       </c>
       <c r="E12">
-        <v>1.036560652190417</v>
+        <v>0.9627291481855711</v>
       </c>
       <c r="F12">
         <v>0.842034489381037</v>
       </c>
       <c r="G12">
-        <v>0.7548606782301578</v>
+        <v>0.842034489381037</v>
       </c>
       <c r="H12">
         <v>1.133592152021125</v>
       </c>
       <c r="I12">
+        <v>0.7548606782301578</v>
+      </c>
+      <c r="J12">
         <v>0.9810804220031685</v>
-      </c>
-      <c r="J12">
-        <v>0.9627291481855713</v>
       </c>
       <c r="K12">
         <v>0.842034489381037</v>
@@ -1262,13 +1214,13 @@
         <v>1.036560652190417</v>
       </c>
       <c r="M12">
-        <v>0.9996449001879943</v>
+        <v>0.9996449001879942</v>
       </c>
       <c r="N12">
-        <v>0.9996449001879943</v>
+        <v>0.9996449001879942</v>
       </c>
       <c r="O12">
-        <v>1.044293984132372</v>
+        <v>1.044293984132371</v>
       </c>
       <c r="P12">
         <v>0.9471080965856752</v>
@@ -1286,7 +1238,7 @@
         <v>0.9518095903352464</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,31 +1246,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.132955700809851</v>
+        <v>0.865996766667798</v>
       </c>
       <c r="D13">
         <v>1.327823093911721</v>
       </c>
       <c r="E13">
-        <v>0.865996766667798</v>
+        <v>1.327823093911721</v>
       </c>
       <c r="F13">
-        <v>1.132955700809851</v>
+        <v>1.132955700809852</v>
       </c>
       <c r="G13">
-        <v>1.085968139150315</v>
+        <v>1.132955700809852</v>
       </c>
       <c r="H13">
         <v>1.01153513116396</v>
       </c>
       <c r="I13">
+        <v>1.085968139150315</v>
+      </c>
+      <c r="J13">
         <v>0.9442257582167499</v>
       </c>
-      <c r="J13">
-        <v>1.327823093911721</v>
-      </c>
       <c r="K13">
-        <v>1.132955700809851</v>
+        <v>1.132955700809852</v>
       </c>
       <c r="L13">
         <v>0.865996766667798</v>
@@ -1348,7 +1300,7 @@
         <v>1.061417431653399</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,31 +1308,31 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.622185889961739</v>
+        <v>0.8563273687250841</v>
       </c>
       <c r="D14">
         <v>2.18679862176494</v>
       </c>
       <c r="E14">
-        <v>0.8563273687250841</v>
+        <v>2.18679862176494</v>
       </c>
       <c r="F14">
-        <v>0.622185889961739</v>
+        <v>0.6221858899617387</v>
       </c>
       <c r="G14">
-        <v>1.077458620113567</v>
+        <v>0.6221858899617387</v>
       </c>
       <c r="H14">
         <v>1.333981246539724</v>
       </c>
       <c r="I14">
-        <v>0.7810073495717181</v>
+        <v>1.077458620113567</v>
       </c>
       <c r="J14">
-        <v>2.18679862176494</v>
+        <v>0.781007349571718</v>
       </c>
       <c r="K14">
-        <v>0.622185889961739</v>
+        <v>0.6221858899617387</v>
       </c>
       <c r="L14">
         <v>0.8563273687250841</v>
@@ -1410,7 +1362,7 @@
         <v>1.142959849446129</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,28 +1370,28 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9043021779941286</v>
+        <v>1.022670578337719</v>
       </c>
       <c r="D15">
         <v>0.6738976979639911</v>
       </c>
       <c r="E15">
-        <v>1.022670578337719</v>
+        <v>0.6738976979639911</v>
       </c>
       <c r="F15">
         <v>0.9043021779941286</v>
       </c>
       <c r="G15">
-        <v>0.658324503583533</v>
+        <v>0.9043021779941286</v>
       </c>
       <c r="H15">
         <v>1.14632668909471</v>
       </c>
       <c r="I15">
+        <v>0.658324503583533</v>
+      </c>
+      <c r="J15">
         <v>0.9921492804894084</v>
-      </c>
-      <c r="J15">
-        <v>0.6738976979639911</v>
       </c>
       <c r="K15">
         <v>0.9043021779941286</v>
@@ -1448,31 +1400,31 @@
         <v>1.022670578337719</v>
       </c>
       <c r="M15">
-        <v>0.848284138150855</v>
+        <v>0.8482841381508548</v>
       </c>
       <c r="N15">
-        <v>0.848284138150855</v>
+        <v>0.8482841381508548</v>
       </c>
       <c r="O15">
         <v>0.94763165513214</v>
       </c>
       <c r="P15">
-        <v>0.8669568180986129</v>
+        <v>0.8669568180986128</v>
       </c>
       <c r="Q15">
-        <v>0.8669568180986129</v>
+        <v>0.8669568180986128</v>
       </c>
       <c r="R15">
-        <v>0.8762931580724919</v>
+        <v>0.8762931580724918</v>
       </c>
       <c r="S15">
-        <v>0.8762931580724919</v>
+        <v>0.8762931580724918</v>
       </c>
       <c r="T15">
         <v>0.8996118212439149</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9959755310722964</v>
+        <v>1.064042314452548</v>
       </c>
       <c r="D16">
-        <v>1.000984810210329</v>
+        <v>0.5314321357735201</v>
       </c>
       <c r="E16">
-        <v>1.001835344321015</v>
+        <v>0.5314321357735201</v>
       </c>
       <c r="F16">
-        <v>0.9959755310722964</v>
+        <v>1.095547119827699</v>
       </c>
       <c r="G16">
-        <v>1.003584956657818</v>
+        <v>1.095547119827699</v>
       </c>
       <c r="H16">
-        <v>0.9999931634434812</v>
+        <v>0.8818064880173252</v>
       </c>
       <c r="I16">
-        <v>0.9999169240891352</v>
+        <v>1.082596965633219</v>
       </c>
       <c r="J16">
-        <v>1.000984810210329</v>
+        <v>1.067522480680601</v>
       </c>
       <c r="K16">
-        <v>0.9959755310722964</v>
+        <v>1.095547119827699</v>
       </c>
       <c r="L16">
-        <v>1.001835344321015</v>
+        <v>1.064042314452548</v>
       </c>
       <c r="M16">
-        <v>1.001410077265672</v>
+        <v>0.797737225113034</v>
       </c>
       <c r="N16">
-        <v>1.001410077265672</v>
+        <v>0.797737225113034</v>
       </c>
       <c r="O16">
-        <v>1.000937772658275</v>
+        <v>0.8257603127477977</v>
       </c>
       <c r="P16">
-        <v>0.9995985618678801</v>
+        <v>0.8970071900179223</v>
       </c>
       <c r="Q16">
-        <v>0.9995985618678801</v>
+        <v>0.8970071900179223</v>
       </c>
       <c r="R16">
-        <v>0.9986928041689842</v>
+        <v>0.9466421724703664</v>
       </c>
       <c r="S16">
-        <v>0.9986928041689842</v>
+        <v>0.9466421724703664</v>
       </c>
       <c r="T16">
-        <v>1.000381788299012</v>
+        <v>0.9538245840641518</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.004659365472778</v>
+        <v>1.068067791521531</v>
       </c>
       <c r="D17">
-        <v>0.9969962218325652</v>
+        <v>0.647891706818863</v>
       </c>
       <c r="E17">
-        <v>0.9989655447287403</v>
+        <v>0.647891706818863</v>
       </c>
       <c r="F17">
-        <v>1.004659365472778</v>
+        <v>1.050008510519962</v>
       </c>
       <c r="G17">
-        <v>0.9950526887313752</v>
+        <v>1.050008510519962</v>
       </c>
       <c r="H17">
-        <v>0.9992120032498443</v>
+        <v>0.8984742588605055</v>
       </c>
       <c r="I17">
-        <v>1.000842086591448</v>
+        <v>1.087570254587731</v>
       </c>
       <c r="J17">
-        <v>0.9969962218325652</v>
+        <v>1.057630992338299</v>
       </c>
       <c r="K17">
-        <v>1.004659365472778</v>
+        <v>1.050008510519962</v>
       </c>
       <c r="L17">
-        <v>0.9989655447287403</v>
+        <v>1.068067791521531</v>
       </c>
       <c r="M17">
-        <v>0.9979808832806527</v>
+        <v>0.8579797491701968</v>
       </c>
       <c r="N17">
-        <v>0.9979808832806527</v>
+        <v>0.8579797491701968</v>
       </c>
       <c r="O17">
-        <v>0.9983912566037166</v>
+        <v>0.8714779190669665</v>
       </c>
       <c r="P17">
-        <v>1.000207044011361</v>
+        <v>0.9219893362867851</v>
       </c>
       <c r="Q17">
-        <v>1.000207044011361</v>
+        <v>0.9219893362867851</v>
       </c>
       <c r="R17">
-        <v>1.001320124376715</v>
+        <v>0.9539941298450794</v>
       </c>
       <c r="S17">
-        <v>1.001320124376715</v>
+        <v>0.9539941298450794</v>
       </c>
       <c r="T17">
-        <v>0.9992879851011253</v>
+        <v>0.968273919107815</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9925112833844686</v>
+        <v>1.07471355884995</v>
       </c>
       <c r="D18">
-        <v>0.9952514822828413</v>
+        <v>0.8805045755834898</v>
       </c>
       <c r="E18">
-        <v>1.005441383676957</v>
+        <v>0.8805045755834898</v>
       </c>
       <c r="F18">
-        <v>0.9925112833844686</v>
+        <v>0.9613796120549448</v>
       </c>
       <c r="G18">
-        <v>1.01230760589301</v>
+        <v>0.9613796120549448</v>
       </c>
       <c r="H18">
-        <v>0.9978402876979723</v>
+        <v>0.932000081786625</v>
       </c>
       <c r="I18">
-        <v>1.000159430137175</v>
+        <v>1.09630422983126</v>
       </c>
       <c r="J18">
-        <v>0.9952514822828413</v>
+        <v>1.037566307774397</v>
       </c>
       <c r="K18">
-        <v>0.9925112833844686</v>
+        <v>0.9613796120549448</v>
       </c>
       <c r="L18">
-        <v>1.005441383676957</v>
+        <v>1.07471355884995</v>
       </c>
       <c r="M18">
-        <v>1.000346432979899</v>
+        <v>0.9776090672167197</v>
       </c>
       <c r="N18">
-        <v>1.000346432979899</v>
+        <v>0.9776090672167197</v>
       </c>
       <c r="O18">
-        <v>0.999511051219257</v>
+        <v>0.9624060720733548</v>
       </c>
       <c r="P18">
-        <v>0.9977347164480892</v>
+        <v>0.9721992488294614</v>
       </c>
       <c r="Q18">
-        <v>0.9977347164480891</v>
+        <v>0.9721992488294614</v>
       </c>
       <c r="R18">
-        <v>0.996428858182184</v>
+        <v>0.9694943396358323</v>
       </c>
       <c r="S18">
-        <v>0.996428858182184</v>
+        <v>0.9694943396358323</v>
       </c>
       <c r="T18">
-        <v>1.000585245512071</v>
+        <v>0.997078060980111</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.108102480517437</v>
+      </c>
+      <c r="D19">
+        <v>0.842627123756413</v>
+      </c>
+      <c r="E19">
+        <v>0.842627123756413</v>
+      </c>
+      <c r="F19">
+        <v>0.9183882551972828</v>
+      </c>
+      <c r="G19">
+        <v>0.9183882551972828</v>
+      </c>
+      <c r="H19">
+        <v>0.9266331460071499</v>
+      </c>
+      <c r="I19">
+        <v>1.110803569090442</v>
+      </c>
+      <c r="J19">
+        <v>1.046638092724855</v>
+      </c>
+      <c r="K19">
+        <v>0.9183882551972828</v>
+      </c>
+      <c r="L19">
+        <v>1.108102480517437</v>
+      </c>
+      <c r="M19">
+        <v>0.975364802136925</v>
+      </c>
+      <c r="N19">
+        <v>0.975364802136925</v>
+      </c>
+      <c r="O19">
+        <v>0.9591209167603333</v>
+      </c>
+      <c r="P19">
+        <v>0.9563726198237109</v>
+      </c>
+      <c r="Q19">
+        <v>0.956372619823711</v>
+      </c>
+      <c r="R19">
+        <v>0.9468765286671039</v>
+      </c>
+      <c r="S19">
+        <v>0.9468765286671039</v>
+      </c>
+      <c r="T19">
+        <v>0.9921987778822633</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.001835344321014</v>
+      </c>
+      <c r="D20">
+        <v>1.000984810210328</v>
+      </c>
+      <c r="E20">
+        <v>1.000984810210328</v>
+      </c>
+      <c r="F20">
+        <v>0.9959755310722967</v>
+      </c>
+      <c r="G20">
+        <v>0.9959755310722967</v>
+      </c>
+      <c r="H20">
+        <v>0.9999931634434813</v>
+      </c>
+      <c r="I20">
+        <v>1.003584956657818</v>
+      </c>
+      <c r="J20">
+        <v>0.9999169240891352</v>
+      </c>
+      <c r="K20">
+        <v>0.9959755310722967</v>
+      </c>
+      <c r="L20">
+        <v>1.001835344321014</v>
+      </c>
+      <c r="M20">
+        <v>1.001410077265672</v>
+      </c>
+      <c r="N20">
+        <v>1.001410077265672</v>
+      </c>
+      <c r="O20">
+        <v>1.000937772658275</v>
+      </c>
+      <c r="P20">
+        <v>0.99959856186788</v>
+      </c>
+      <c r="Q20">
+        <v>0.99959856186788</v>
+      </c>
+      <c r="R20">
+        <v>0.9986928041689842</v>
+      </c>
+      <c r="S20">
+        <v>0.9986928041689842</v>
+      </c>
+      <c r="T20">
+        <v>1.000381788299012</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.998965544728741</v>
+      </c>
+      <c r="D21">
+        <v>0.9969962218325645</v>
+      </c>
+      <c r="E21">
+        <v>0.9969962218325645</v>
+      </c>
+      <c r="F21">
+        <v>1.004659365472778</v>
+      </c>
+      <c r="G21">
+        <v>1.004659365472778</v>
+      </c>
+      <c r="H21">
+        <v>0.9992120032498443</v>
+      </c>
+      <c r="I21">
+        <v>0.9950526887313751</v>
+      </c>
+      <c r="J21">
+        <v>1.000842086591448</v>
+      </c>
+      <c r="K21">
+        <v>1.004659365472778</v>
+      </c>
+      <c r="L21">
+        <v>0.998965544728741</v>
+      </c>
+      <c r="M21">
+        <v>0.9979808832806527</v>
+      </c>
+      <c r="N21">
+        <v>0.9979808832806527</v>
+      </c>
+      <c r="O21">
+        <v>0.9983912566037166</v>
+      </c>
+      <c r="P21">
+        <v>1.000207044011361</v>
+      </c>
+      <c r="Q21">
+        <v>1.000207044011361</v>
+      </c>
+      <c r="R21">
+        <v>1.001320124376715</v>
+      </c>
+      <c r="S21">
+        <v>1.001320124376715</v>
+      </c>
+      <c r="T21">
+        <v>0.9992879851011253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.005441383676958</v>
+      </c>
+      <c r="D22">
+        <v>0.9952514822828413</v>
+      </c>
+      <c r="E22">
+        <v>0.9952514822828413</v>
+      </c>
+      <c r="F22">
+        <v>0.992511283384468</v>
+      </c>
+      <c r="G22">
+        <v>0.992511283384468</v>
+      </c>
+      <c r="H22">
+        <v>0.9978402876979723</v>
+      </c>
+      <c r="I22">
+        <v>1.01230760589301</v>
+      </c>
+      <c r="J22">
+        <v>1.000159430137175</v>
+      </c>
+      <c r="K22">
+        <v>0.992511283384468</v>
+      </c>
+      <c r="L22">
+        <v>1.005441383676958</v>
+      </c>
+      <c r="M22">
+        <v>1.000346432979899</v>
+      </c>
+      <c r="N22">
+        <v>1.000346432979899</v>
+      </c>
+      <c r="O22">
+        <v>0.999511051219257</v>
+      </c>
+      <c r="P22">
+        <v>0.9977347164480891</v>
+      </c>
+      <c r="Q22">
+        <v>0.9977347164480891</v>
+      </c>
+      <c r="R22">
+        <v>0.9964288581821839</v>
+      </c>
+      <c r="S22">
+        <v>0.9964288581821839</v>
+      </c>
+      <c r="T22">
+        <v>1.000585245512071</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.018282932733074</v>
+      </c>
+      <c r="D23">
+        <v>0.9895031535435318</v>
+      </c>
+      <c r="E23">
+        <v>0.9895031535435318</v>
+      </c>
+      <c r="F23">
         <v>0.9629418305346484</v>
       </c>
-      <c r="D19">
-        <v>0.9895031535435318</v>
-      </c>
-      <c r="E19">
+      <c r="G23">
+        <v>0.9629418305346484</v>
+      </c>
+      <c r="H23">
+        <v>0.9970597268940469</v>
+      </c>
+      <c r="I23">
+        <v>1.04257592811101</v>
+      </c>
+      <c r="J23">
+        <v>1.000261825133806</v>
+      </c>
+      <c r="K23">
+        <v>0.9629418305346484</v>
+      </c>
+      <c r="L23">
         <v>1.018282932733074</v>
       </c>
-      <c r="F19">
-        <v>0.9629418305346484</v>
-      </c>
-      <c r="G19">
-        <v>1.04257592811101</v>
-      </c>
-      <c r="H19">
-        <v>0.9970597268940469</v>
-      </c>
-      <c r="I19">
-        <v>1.000261825133806</v>
-      </c>
-      <c r="J19">
-        <v>0.9895031535435318</v>
-      </c>
-      <c r="K19">
-        <v>0.9629418305346484</v>
-      </c>
-      <c r="L19">
-        <v>1.018282932733074</v>
-      </c>
-      <c r="M19">
+      <c r="M23">
         <v>1.003893043138303</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.003893043138303</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.001615271056884</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9902426389370848</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9902426389370848</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9834174368364756</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9834174368364756</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.001770899491686</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Alpha3F-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha3F-HW15.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 1, 1]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.003187740967027</v>
+        <v>1.09437070561239</v>
       </c>
       <c r="D3">
-        <v>0.9741347154470948</v>
+        <v>0.8424064575485577</v>
       </c>
       <c r="E3">
-        <v>0.9741347154470948</v>
+        <v>0.8424064575485577</v>
       </c>
       <c r="F3">
-        <v>1.00528970742142</v>
+        <v>0.9599654796469758</v>
       </c>
       <c r="G3">
-        <v>1.00528970742142</v>
+        <v>0.9599654796469758</v>
       </c>
       <c r="H3">
-        <v>0.9941564755648994</v>
+        <v>0.9132495316325658</v>
       </c>
       <c r="I3">
-        <v>1.00379818931829</v>
+        <v>1.106788984768008</v>
       </c>
       <c r="J3">
-        <v>1.003384644211949</v>
+        <v>1.049022785259366</v>
       </c>
       <c r="K3">
-        <v>1.00528970742142</v>
+        <v>0.9599654796469758</v>
       </c>
       <c r="L3">
-        <v>1.003187740967027</v>
+        <v>1.09437070561239</v>
       </c>
       <c r="M3">
-        <v>0.988661228207061</v>
+        <v>0.9683885815804737</v>
       </c>
       <c r="N3">
-        <v>0.988661228207061</v>
+        <v>0.9683885815804737</v>
       </c>
       <c r="O3">
-        <v>0.9904929773263405</v>
+        <v>0.9500088982645044</v>
       </c>
       <c r="P3">
-        <v>0.9942040546118472</v>
+        <v>0.9655808809359744</v>
       </c>
       <c r="Q3">
-        <v>0.994204054611847</v>
+        <v>0.9655808809359744</v>
       </c>
       <c r="R3">
-        <v>0.9969754678142402</v>
+        <v>0.9641770306137247</v>
       </c>
       <c r="S3">
-        <v>0.9969754678142402</v>
+        <v>0.9641770306137247</v>
       </c>
       <c r="T3">
-        <v>0.9973252454884465</v>
+        <v>0.9943006574113106</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.005697298906681</v>
+        <v>1.084684597672384</v>
       </c>
       <c r="D4">
-        <v>0.9510763359764055</v>
+        <v>0.8634766354409282</v>
       </c>
       <c r="E4">
-        <v>0.9510763359764055</v>
+        <v>0.8634766354409282</v>
       </c>
       <c r="F4">
-        <v>1.011530759007626</v>
+        <v>0.9586755297614616</v>
       </c>
       <c r="G4">
-        <v>1.011530759007626</v>
+        <v>0.9586755297614616</v>
       </c>
       <c r="H4">
-        <v>0.9884501226941569</v>
+        <v>0.9234000629098027</v>
       </c>
       <c r="I4">
-        <v>1.006633282410023</v>
+        <v>1.101982836480062</v>
       </c>
       <c r="J4">
-        <v>1.006546964288916</v>
+        <v>1.042995861313825</v>
       </c>
       <c r="K4">
-        <v>1.011530759007626</v>
+        <v>0.9586755297614616</v>
       </c>
       <c r="L4">
-        <v>1.005697298906681</v>
+        <v>1.084684597672384</v>
       </c>
       <c r="M4">
-        <v>0.9783868174415435</v>
+        <v>0.974080616556656</v>
       </c>
       <c r="N4">
-        <v>0.9783868174415435</v>
+        <v>0.974080616556656</v>
       </c>
       <c r="O4">
-        <v>0.981741252525748</v>
+        <v>0.9571870986743716</v>
       </c>
       <c r="P4">
-        <v>0.9894347979635709</v>
+        <v>0.9689455876249246</v>
       </c>
       <c r="Q4">
-        <v>0.9894347979635709</v>
+        <v>0.9689455876249246</v>
       </c>
       <c r="R4">
-        <v>0.9949587882245847</v>
+        <v>0.9663780731590589</v>
       </c>
       <c r="S4">
-        <v>0.9949587882245847</v>
+        <v>0.9663780731590589</v>
       </c>
       <c r="T4">
-        <v>0.9949891272139681</v>
+        <v>0.9958692539297438</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.012415007376709</v>
+        <v>1.112653265363883</v>
       </c>
       <c r="D5">
-        <v>0.9059602991425386</v>
+        <v>0.8028371566161723</v>
       </c>
       <c r="E5">
-        <v>0.9059602991425386</v>
+        <v>0.8028371566161723</v>
       </c>
       <c r="F5">
-        <v>1.018744442229538</v>
+        <v>0.9627362311590287</v>
       </c>
       <c r="G5">
-        <v>1.018744442229538</v>
+        <v>0.9627362311590287</v>
       </c>
       <c r="H5">
-        <v>0.9780103067036826</v>
+        <v>0.8939670404528309</v>
       </c>
       <c r="I5">
-        <v>1.015196624279876</v>
+        <v>1.115778629056604</v>
       </c>
       <c r="J5">
-        <v>1.012523824490778</v>
+        <v>1.060403834986524</v>
       </c>
       <c r="K5">
-        <v>1.018744442229538</v>
+        <v>0.9627362311590287</v>
       </c>
       <c r="L5">
-        <v>1.012415007376709</v>
+        <v>1.112653265363883</v>
       </c>
       <c r="M5">
-        <v>0.959187653259624</v>
+        <v>0.9577452109900274</v>
       </c>
       <c r="N5">
-        <v>0.959187653259624</v>
+        <v>0.9577452109900274</v>
       </c>
       <c r="O5">
-        <v>0.9654618710743103</v>
+        <v>0.936485820810962</v>
       </c>
       <c r="P5">
-        <v>0.9790399162495954</v>
+        <v>0.9594088843796945</v>
       </c>
       <c r="Q5">
-        <v>0.9790399162495954</v>
+        <v>0.9594088843796946</v>
       </c>
       <c r="R5">
-        <v>0.9889660477445811</v>
+        <v>0.9602407210745282</v>
       </c>
       <c r="S5">
-        <v>0.9889660477445811</v>
+        <v>0.9602407210745282</v>
       </c>
       <c r="T5">
-        <v>0.9904750840371873</v>
+        <v>0.9913960262725069</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.015876567878578</v>
+        <v>1.129589958749999</v>
       </c>
       <c r="D6">
-        <v>0.8638096861558497</v>
+        <v>0.7664209219409094</v>
       </c>
       <c r="E6">
-        <v>0.8638096861558497</v>
+        <v>0.7664209219409094</v>
       </c>
       <c r="F6">
-        <v>1.026562863678895</v>
+        <v>0.9657050032954542</v>
       </c>
       <c r="G6">
-        <v>1.026562863678895</v>
+        <v>0.9657050032954542</v>
       </c>
       <c r="H6">
-        <v>0.9667029910773763</v>
+        <v>0.8759564564999998</v>
       </c>
       <c r="I6">
-        <v>1.033422509276644</v>
+        <v>1.124008402897726</v>
       </c>
       <c r="J6">
-        <v>1.01622395153391</v>
+        <v>1.070953308977273</v>
       </c>
       <c r="K6">
-        <v>1.026562863678895</v>
+        <v>0.9657050032954542</v>
       </c>
       <c r="L6">
-        <v>1.015876567878578</v>
+        <v>1.129589958749999</v>
       </c>
       <c r="M6">
-        <v>0.9398431270172137</v>
+        <v>0.9480054403454543</v>
       </c>
       <c r="N6">
-        <v>0.9398431270172137</v>
+        <v>0.9480054403454543</v>
       </c>
       <c r="O6">
-        <v>0.948796415037268</v>
+        <v>0.9239891123969693</v>
       </c>
       <c r="P6">
-        <v>0.9687497059044409</v>
+        <v>0.9539052946621208</v>
       </c>
       <c r="Q6">
-        <v>0.9687497059044409</v>
+        <v>0.9539052946621208</v>
       </c>
       <c r="R6">
-        <v>0.9832029953480543</v>
+        <v>0.9568552218204542</v>
       </c>
       <c r="S6">
-        <v>0.9832029953480543</v>
+        <v>0.9568552218204542</v>
       </c>
       <c r="T6">
-        <v>0.9870997616002088</v>
+        <v>0.9887723420602269</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000766456869952</v>
+        <v>1.0382203961791</v>
       </c>
       <c r="D7">
-        <v>0.9989641408427885</v>
+        <v>0.07617255308775521</v>
       </c>
       <c r="E7">
-        <v>0.9989641408427885</v>
+        <v>0.07617255308775521</v>
       </c>
       <c r="F7">
-        <v>0.9997437942695206</v>
+        <v>1.907535517606483</v>
       </c>
       <c r="G7">
-        <v>0.9997437942695206</v>
+        <v>1.907535517606483</v>
       </c>
       <c r="H7">
-        <v>0.9993417770335403</v>
+        <v>0.4524845193553945</v>
       </c>
       <c r="I7">
-        <v>1.0005963108944</v>
+        <v>0.8260012195646279</v>
       </c>
       <c r="J7">
-        <v>1.000377405060444</v>
+        <v>1.263208422457548</v>
       </c>
       <c r="K7">
-        <v>0.9997437942695206</v>
+        <v>1.907535517606483</v>
       </c>
       <c r="L7">
-        <v>1.000766456869952</v>
+        <v>1.0382203961791</v>
       </c>
       <c r="M7">
-        <v>0.9998652988563701</v>
+        <v>0.5571964746334275</v>
       </c>
       <c r="N7">
-        <v>0.9998652988563701</v>
+        <v>0.5571964746334275</v>
       </c>
       <c r="O7">
-        <v>0.9996907915820935</v>
+        <v>0.5222924895407498</v>
       </c>
       <c r="P7">
-        <v>0.9998247973274204</v>
+        <v>1.007309488957779</v>
       </c>
       <c r="Q7">
-        <v>0.9998247973274204</v>
+        <v>1.007309488957779</v>
       </c>
       <c r="R7">
-        <v>0.9998045465629455</v>
+        <v>1.232365996119955</v>
       </c>
       <c r="S7">
-        <v>0.9998045465629455</v>
+        <v>1.232365996119955</v>
       </c>
       <c r="T7">
-        <v>0.999964980828441</v>
+        <v>0.9272704380418179</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.001747109289765</v>
+        <v>1.040135132997802</v>
       </c>
       <c r="D8">
-        <v>0.9968235343965338</v>
+        <v>0.07633128531603488</v>
       </c>
       <c r="E8">
-        <v>0.9968235343965338</v>
+        <v>0.07633128531603488</v>
       </c>
       <c r="F8">
-        <v>1.000114602751336</v>
+        <v>1.904517580898137</v>
       </c>
       <c r="G8">
-        <v>1.000114602751336</v>
+        <v>1.904517580898137</v>
       </c>
       <c r="H8">
-        <v>0.9981015328578211</v>
+        <v>0.4524641603787041</v>
       </c>
       <c r="I8">
-        <v>1.001358689270315</v>
+        <v>0.8278787203872623</v>
       </c>
       <c r="J8">
-        <v>1.001019759060635</v>
+        <v>1.263286956469013</v>
       </c>
       <c r="K8">
-        <v>1.000114602751336</v>
+        <v>1.904517580898137</v>
       </c>
       <c r="L8">
-        <v>1.001747109289765</v>
+        <v>1.040135132997802</v>
       </c>
       <c r="M8">
-        <v>0.9992853218431494</v>
+        <v>0.5582332091569184</v>
       </c>
       <c r="N8">
-        <v>0.9992853218431494</v>
+        <v>0.5582332091569184</v>
       </c>
       <c r="O8">
-        <v>0.9988907255147067</v>
+        <v>0.5229768595641803</v>
       </c>
       <c r="P8">
-        <v>0.9995617488125449</v>
+        <v>1.006994666403991</v>
       </c>
       <c r="Q8">
-        <v>0.9995617488125449</v>
+        <v>1.006994666403991</v>
       </c>
       <c r="R8">
-        <v>0.9996999622972427</v>
+        <v>1.231375395027528</v>
       </c>
       <c r="S8">
-        <v>0.9996999622972427</v>
+        <v>1.231375395027528</v>
       </c>
       <c r="T8">
-        <v>0.9998608712710677</v>
+        <v>0.9274356394078255</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.001621355836493</v>
+        <v>1.043551789741708</v>
       </c>
       <c r="D9">
-        <v>0.9955545045513703</v>
+        <v>0.07661743165357611</v>
       </c>
       <c r="E9">
-        <v>0.9955545045513703</v>
+        <v>0.07661743165357611</v>
       </c>
       <c r="F9">
-        <v>1.001644542613686</v>
+        <v>1.898199423535791</v>
       </c>
       <c r="G9">
-        <v>1.001644542613686</v>
+        <v>1.898199423535791</v>
       </c>
       <c r="H9">
-        <v>0.9974294258030492</v>
+        <v>0.4525399225042248</v>
       </c>
       <c r="I9">
-        <v>1.001411607248095</v>
+        <v>0.8312414669736508</v>
       </c>
       <c r="J9">
-        <v>1.001232936690858</v>
+        <v>1.263599160853992</v>
       </c>
       <c r="K9">
-        <v>1.001644542613686</v>
+        <v>1.898199423535791</v>
       </c>
       <c r="L9">
-        <v>1.001621355836493</v>
+        <v>1.043551789741708</v>
       </c>
       <c r="M9">
-        <v>0.9985879301939315</v>
+        <v>0.5600846106976421</v>
       </c>
       <c r="N9">
-        <v>0.9985879301939315</v>
+        <v>0.5600846106976421</v>
       </c>
       <c r="O9">
-        <v>0.9982017620636374</v>
+        <v>0.5242363812998364</v>
       </c>
       <c r="P9">
-        <v>0.9996068010005162</v>
+        <v>1.006122881643692</v>
       </c>
       <c r="Q9">
-        <v>0.9996068010005162</v>
+        <v>1.006122881643692</v>
       </c>
       <c r="R9">
-        <v>1.000116236403809</v>
+        <v>1.229142017116716</v>
       </c>
       <c r="S9">
-        <v>1.000116236403809</v>
+        <v>1.229142017116716</v>
       </c>
       <c r="T9">
-        <v>0.9998157287905919</v>
+        <v>0.927624865877157</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.004386181296131</v>
+        <v>1.044198400812363</v>
       </c>
       <c r="D10">
-        <v>0.9903977106874371</v>
+        <v>0.07666016844676624</v>
       </c>
       <c r="E10">
-        <v>0.9903977106874371</v>
+        <v>0.07666016844676624</v>
       </c>
       <c r="F10">
-        <v>1.001769290383193</v>
+        <v>1.900670961463312</v>
       </c>
       <c r="G10">
-        <v>1.001769290383193</v>
+        <v>1.900670961463312</v>
       </c>
       <c r="H10">
-        <v>0.994507934488063</v>
+        <v>0.4521136516871876</v>
       </c>
       <c r="I10">
-        <v>1.003874923888336</v>
+        <v>0.8318286084931419</v>
       </c>
       <c r="J10">
-        <v>1.002788149756293</v>
+        <v>1.262981876634012</v>
       </c>
       <c r="K10">
-        <v>1.001769290383193</v>
+        <v>1.900670961463312</v>
       </c>
       <c r="L10">
-        <v>1.004386181296131</v>
+        <v>1.044198400812363</v>
       </c>
       <c r="M10">
-        <v>0.997391945991784</v>
+        <v>0.5604292846295648</v>
       </c>
       <c r="N10">
-        <v>0.997391945991784</v>
+        <v>0.5604292846295648</v>
       </c>
       <c r="O10">
-        <v>0.9964306088238771</v>
+        <v>0.5243240736487723</v>
       </c>
       <c r="P10">
-        <v>0.9988510607889204</v>
+        <v>1.007176510240814</v>
       </c>
       <c r="Q10">
-        <v>0.9988510607889204</v>
+        <v>1.007176510240814</v>
       </c>
       <c r="R10">
-        <v>0.9995806181874886</v>
+        <v>1.230550123046439</v>
       </c>
       <c r="S10">
-        <v>0.9995806181874886</v>
+        <v>1.230550123046439</v>
       </c>
       <c r="T10">
-        <v>0.9996206984165754</v>
+        <v>0.9280756112561307</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.005552455520522</v>
+        <v>1.001641761814095</v>
       </c>
       <c r="D11">
-        <v>0.9838330261484368</v>
+        <v>0.9704010119494194</v>
       </c>
       <c r="E11">
-        <v>0.9838330261484368</v>
+        <v>0.9704010119494194</v>
       </c>
       <c r="F11">
-        <v>1.007414458754105</v>
+        <v>1.012877854087792</v>
       </c>
       <c r="G11">
-        <v>1.007414458754105</v>
+        <v>1.012877854087792</v>
       </c>
       <c r="H11">
-        <v>0.9904879937852079</v>
+        <v>0.9912783997862464</v>
       </c>
       <c r="I11">
-        <v>1.003632921732498</v>
+        <v>1.001329798795259</v>
       </c>
       <c r="J11">
-        <v>1.004615272423444</v>
+        <v>1.004621921589987</v>
       </c>
       <c r="K11">
-        <v>1.007414458754105</v>
+        <v>1.012877854087792</v>
       </c>
       <c r="L11">
-        <v>1.005552455520522</v>
+        <v>1.001641761814095</v>
       </c>
       <c r="M11">
-        <v>0.9946927408344792</v>
+        <v>0.9860213868817573</v>
       </c>
       <c r="N11">
-        <v>0.9946927408344792</v>
+        <v>0.9860213868817573</v>
       </c>
       <c r="O11">
-        <v>0.993291158484722</v>
+        <v>0.987773724516587</v>
       </c>
       <c r="P11">
-        <v>0.9989333134743544</v>
+        <v>0.9949735426171021</v>
       </c>
       <c r="Q11">
-        <v>0.9989333134743544</v>
+        <v>0.9949735426171021</v>
       </c>
       <c r="R11">
-        <v>1.001053599794292</v>
+        <v>0.9994496204847745</v>
       </c>
       <c r="S11">
-        <v>1.001053599794292</v>
+        <v>0.9994496204847745</v>
       </c>
       <c r="T11">
-        <v>0.9992560213940355</v>
+        <v>0.9970251246704663</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.036560652190417</v>
+        <v>1.002229129983175</v>
       </c>
       <c r="D12">
-        <v>0.9627291481855711</v>
+        <v>0.9829941744148104</v>
       </c>
       <c r="E12">
-        <v>0.9627291481855711</v>
+        <v>0.9829941744148104</v>
       </c>
       <c r="F12">
-        <v>0.842034489381037</v>
+        <v>1.006138810765343</v>
       </c>
       <c r="G12">
-        <v>0.842034489381037</v>
+        <v>1.006138810765343</v>
       </c>
       <c r="H12">
-        <v>1.133592152021125</v>
+        <v>0.9943782242423703</v>
       </c>
       <c r="I12">
-        <v>0.7548606782301578</v>
+        <v>1.00125731771088</v>
       </c>
       <c r="J12">
-        <v>0.9810804220031685</v>
+        <v>1.003105708111768</v>
       </c>
       <c r="K12">
-        <v>0.842034489381037</v>
+        <v>1.006138810765343</v>
       </c>
       <c r="L12">
-        <v>1.036560652190417</v>
+        <v>1.002229129983175</v>
       </c>
       <c r="M12">
-        <v>0.9996449001879942</v>
+        <v>0.9926116521989929</v>
       </c>
       <c r="N12">
-        <v>0.9996449001879942</v>
+        <v>0.9926116521989929</v>
       </c>
       <c r="O12">
-        <v>1.044293984132371</v>
+        <v>0.9932005095467854</v>
       </c>
       <c r="P12">
-        <v>0.9471080965856752</v>
+        <v>0.9971207050544429</v>
       </c>
       <c r="Q12">
-        <v>0.9471080965856752</v>
+        <v>0.9971207050544427</v>
       </c>
       <c r="R12">
-        <v>0.9208396947845157</v>
+        <v>0.9993752314821678</v>
       </c>
       <c r="S12">
-        <v>0.9208396947845157</v>
+        <v>0.9993752314821678</v>
       </c>
       <c r="T12">
-        <v>0.9518095903352464</v>
+        <v>0.9983505608713911</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.865996766667798</v>
+        <v>1.008469158209562</v>
       </c>
       <c r="D13">
-        <v>1.327823093911721</v>
+        <v>0.9411389732346441</v>
       </c>
       <c r="E13">
-        <v>1.327823093911721</v>
+        <v>0.9411389732346441</v>
       </c>
       <c r="F13">
-        <v>1.132955700809852</v>
+        <v>1.016904280493957</v>
       </c>
       <c r="G13">
-        <v>1.132955700809852</v>
+        <v>1.016904280493957</v>
       </c>
       <c r="H13">
-        <v>1.01153513116396</v>
+        <v>0.9818907134192607</v>
       </c>
       <c r="I13">
-        <v>1.085968139150315</v>
+        <v>1.00508940058052</v>
       </c>
       <c r="J13">
-        <v>0.9442257582167499</v>
+        <v>1.010633508301812</v>
       </c>
       <c r="K13">
-        <v>1.132955700809852</v>
+        <v>1.016904280493957</v>
       </c>
       <c r="L13">
-        <v>0.865996766667798</v>
+        <v>1.008469158209562</v>
       </c>
       <c r="M13">
-        <v>1.09690993028976</v>
+        <v>0.9748040657221029</v>
       </c>
       <c r="N13">
-        <v>1.09690993028976</v>
+        <v>0.9748040657221029</v>
       </c>
       <c r="O13">
-        <v>1.068451663914493</v>
+        <v>0.9771662816211556</v>
       </c>
       <c r="P13">
-        <v>1.10892518712979</v>
+        <v>0.9888374706460542</v>
       </c>
       <c r="Q13">
-        <v>1.10892518712979</v>
+        <v>0.9888374706460542</v>
       </c>
       <c r="R13">
-        <v>1.114932815549806</v>
+        <v>0.9958541731080297</v>
       </c>
       <c r="S13">
-        <v>1.114932815549806</v>
+        <v>0.9958541731080297</v>
       </c>
       <c r="T13">
-        <v>1.061417431653399</v>
+        <v>0.9940210057066258</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.8563273687250841</v>
+        <v>1.009580402860938</v>
       </c>
       <c r="D14">
-        <v>2.18679862176494</v>
+        <v>0.929997512391924</v>
       </c>
       <c r="E14">
-        <v>2.18679862176494</v>
+        <v>0.929997512391924</v>
       </c>
       <c r="F14">
-        <v>0.6221858899617387</v>
+        <v>1.014642953250892</v>
       </c>
       <c r="G14">
-        <v>0.6221858899617387</v>
+        <v>1.014642953250892</v>
       </c>
       <c r="H14">
-        <v>1.333981246539724</v>
+        <v>0.983155833437783</v>
       </c>
       <c r="I14">
-        <v>1.077458620113567</v>
+        <v>1.010219660477249</v>
       </c>
       <c r="J14">
-        <v>0.781007349571718</v>
+        <v>1.009801653729659</v>
       </c>
       <c r="K14">
-        <v>0.6221858899617387</v>
+        <v>1.014642953250892</v>
       </c>
       <c r="L14">
-        <v>0.8563273687250841</v>
+        <v>1.009580402860938</v>
       </c>
       <c r="M14">
-        <v>1.521562995245012</v>
+        <v>0.9697889576264308</v>
       </c>
       <c r="N14">
-        <v>1.521562995245012</v>
+        <v>0.9697889576264308</v>
       </c>
       <c r="O14">
-        <v>1.459035745676583</v>
+        <v>0.9742445828968815</v>
       </c>
       <c r="P14">
-        <v>1.221770626817254</v>
+        <v>0.984740289501251</v>
       </c>
       <c r="Q14">
-        <v>1.221770626817254</v>
+        <v>0.984740289501251</v>
       </c>
       <c r="R14">
-        <v>1.071874442603375</v>
+        <v>0.9922159554386611</v>
       </c>
       <c r="S14">
-        <v>1.071874442603375</v>
+        <v>0.9922159554386611</v>
       </c>
       <c r="T14">
-        <v>1.142959849446129</v>
+        <v>0.9928996693580742</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.022670578337719</v>
+        <v>1.003187740967027</v>
       </c>
       <c r="D15">
-        <v>0.6738976979639911</v>
+        <v>0.9741347154470948</v>
       </c>
       <c r="E15">
-        <v>0.6738976979639911</v>
+        <v>0.9741347154470948</v>
       </c>
       <c r="F15">
-        <v>0.9043021779941286</v>
+        <v>1.00528970742142</v>
       </c>
       <c r="G15">
-        <v>0.9043021779941286</v>
+        <v>1.00528970742142</v>
       </c>
       <c r="H15">
-        <v>1.14632668909471</v>
+        <v>0.9941564755648994</v>
       </c>
       <c r="I15">
-        <v>0.658324503583533</v>
+        <v>1.00379818931829</v>
       </c>
       <c r="J15">
-        <v>0.9921492804894084</v>
+        <v>1.003384644211949</v>
       </c>
       <c r="K15">
-        <v>0.9043021779941286</v>
+        <v>1.00528970742142</v>
       </c>
       <c r="L15">
-        <v>1.022670578337719</v>
+        <v>1.003187740967027</v>
       </c>
       <c r="M15">
-        <v>0.8482841381508548</v>
+        <v>0.988661228207061</v>
       </c>
       <c r="N15">
-        <v>0.8482841381508548</v>
+        <v>0.988661228207061</v>
       </c>
       <c r="O15">
-        <v>0.94763165513214</v>
+        <v>0.9904929773263405</v>
       </c>
       <c r="P15">
-        <v>0.8669568180986128</v>
+        <v>0.9942040546118472</v>
       </c>
       <c r="Q15">
-        <v>0.8669568180986128</v>
+        <v>0.994204054611847</v>
       </c>
       <c r="R15">
-        <v>0.8762931580724918</v>
+        <v>0.9969754678142402</v>
       </c>
       <c r="S15">
-        <v>0.8762931580724918</v>
+        <v>0.9969754678142402</v>
       </c>
       <c r="T15">
-        <v>0.8996118212439149</v>
+        <v>0.9973252454884465</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.064042314452548</v>
+        <v>1.005697298906681</v>
       </c>
       <c r="D16">
-        <v>0.5314321357735201</v>
+        <v>0.9510763359764055</v>
       </c>
       <c r="E16">
-        <v>0.5314321357735201</v>
+        <v>0.9510763359764055</v>
       </c>
       <c r="F16">
-        <v>1.095547119827699</v>
+        <v>1.011530759007626</v>
       </c>
       <c r="G16">
-        <v>1.095547119827699</v>
+        <v>1.011530759007626</v>
       </c>
       <c r="H16">
-        <v>0.8818064880173252</v>
+        <v>0.9884501226941569</v>
       </c>
       <c r="I16">
-        <v>1.082596965633219</v>
+        <v>1.006633282410023</v>
       </c>
       <c r="J16">
-        <v>1.067522480680601</v>
+        <v>1.006546964288916</v>
       </c>
       <c r="K16">
-        <v>1.095547119827699</v>
+        <v>1.011530759007626</v>
       </c>
       <c r="L16">
-        <v>1.064042314452548</v>
+        <v>1.005697298906681</v>
       </c>
       <c r="M16">
-        <v>0.797737225113034</v>
+        <v>0.9783868174415435</v>
       </c>
       <c r="N16">
-        <v>0.797737225113034</v>
+        <v>0.9783868174415435</v>
       </c>
       <c r="O16">
-        <v>0.8257603127477977</v>
+        <v>0.981741252525748</v>
       </c>
       <c r="P16">
-        <v>0.8970071900179223</v>
+        <v>0.9894347979635709</v>
       </c>
       <c r="Q16">
-        <v>0.8970071900179223</v>
+        <v>0.9894347979635709</v>
       </c>
       <c r="R16">
-        <v>0.9466421724703664</v>
+        <v>0.9949587882245847</v>
       </c>
       <c r="S16">
-        <v>0.9466421724703664</v>
+        <v>0.9949587882245847</v>
       </c>
       <c r="T16">
-        <v>0.9538245840641518</v>
+        <v>0.9949891272139681</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.068067791521531</v>
+        <v>1.012415007376709</v>
       </c>
       <c r="D17">
-        <v>0.647891706818863</v>
+        <v>0.9059602991425386</v>
       </c>
       <c r="E17">
-        <v>0.647891706818863</v>
+        <v>0.9059602991425386</v>
       </c>
       <c r="F17">
-        <v>1.050008510519962</v>
+        <v>1.018744442229538</v>
       </c>
       <c r="G17">
-        <v>1.050008510519962</v>
+        <v>1.018744442229538</v>
       </c>
       <c r="H17">
-        <v>0.8984742588605055</v>
+        <v>0.9780103067036826</v>
       </c>
       <c r="I17">
-        <v>1.087570254587731</v>
+        <v>1.015196624279876</v>
       </c>
       <c r="J17">
-        <v>1.057630992338299</v>
+        <v>1.012523824490778</v>
       </c>
       <c r="K17">
-        <v>1.050008510519962</v>
+        <v>1.018744442229538</v>
       </c>
       <c r="L17">
-        <v>1.068067791521531</v>
+        <v>1.012415007376709</v>
       </c>
       <c r="M17">
-        <v>0.8579797491701968</v>
+        <v>0.959187653259624</v>
       </c>
       <c r="N17">
-        <v>0.8579797491701968</v>
+        <v>0.959187653259624</v>
       </c>
       <c r="O17">
-        <v>0.8714779190669665</v>
+        <v>0.9654618710743103</v>
       </c>
       <c r="P17">
-        <v>0.9219893362867851</v>
+        <v>0.9790399162495954</v>
       </c>
       <c r="Q17">
-        <v>0.9219893362867851</v>
+        <v>0.9790399162495954</v>
       </c>
       <c r="R17">
-        <v>0.9539941298450794</v>
+        <v>0.9889660477445811</v>
       </c>
       <c r="S17">
-        <v>0.9539941298450794</v>
+        <v>0.9889660477445811</v>
       </c>
       <c r="T17">
-        <v>0.968273919107815</v>
+        <v>0.9904750840371873</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.07471355884995</v>
+        <v>1.015876567878578</v>
       </c>
       <c r="D18">
-        <v>0.8805045755834898</v>
+        <v>0.8638096861558497</v>
       </c>
       <c r="E18">
-        <v>0.8805045755834898</v>
+        <v>0.8638096861558497</v>
       </c>
       <c r="F18">
-        <v>0.9613796120549448</v>
+        <v>1.026562863678895</v>
       </c>
       <c r="G18">
-        <v>0.9613796120549448</v>
+        <v>1.026562863678895</v>
       </c>
       <c r="H18">
-        <v>0.932000081786625</v>
+        <v>0.9667029910773763</v>
       </c>
       <c r="I18">
-        <v>1.09630422983126</v>
+        <v>1.033422509276644</v>
       </c>
       <c r="J18">
-        <v>1.037566307774397</v>
+        <v>1.01622395153391</v>
       </c>
       <c r="K18">
-        <v>0.9613796120549448</v>
+        <v>1.026562863678895</v>
       </c>
       <c r="L18">
-        <v>1.07471355884995</v>
+        <v>1.015876567878578</v>
       </c>
       <c r="M18">
-        <v>0.9776090672167197</v>
+        <v>0.9398431270172137</v>
       </c>
       <c r="N18">
-        <v>0.9776090672167197</v>
+        <v>0.9398431270172137</v>
       </c>
       <c r="O18">
-        <v>0.9624060720733548</v>
+        <v>0.948796415037268</v>
       </c>
       <c r="P18">
-        <v>0.9721992488294614</v>
+        <v>0.9687497059044409</v>
       </c>
       <c r="Q18">
-        <v>0.9721992488294614</v>
+        <v>0.9687497059044409</v>
       </c>
       <c r="R18">
-        <v>0.9694943396358323</v>
+        <v>0.9832029953480543</v>
       </c>
       <c r="S18">
-        <v>0.9694943396358323</v>
+        <v>0.9832029953480543</v>
       </c>
       <c r="T18">
-        <v>0.997078060980111</v>
+        <v>0.9870997616002088</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.108102480517437</v>
+        <v>1.000766456869952</v>
       </c>
       <c r="D19">
-        <v>0.842627123756413</v>
+        <v>0.9989641408427885</v>
       </c>
       <c r="E19">
-        <v>0.842627123756413</v>
+        <v>0.9989641408427885</v>
       </c>
       <c r="F19">
-        <v>0.9183882551972828</v>
+        <v>0.9997437942695206</v>
       </c>
       <c r="G19">
-        <v>0.9183882551972828</v>
+        <v>0.9997437942695206</v>
       </c>
       <c r="H19">
-        <v>0.9266331460071499</v>
+        <v>0.9993417770335403</v>
       </c>
       <c r="I19">
-        <v>1.110803569090442</v>
+        <v>1.0005963108944</v>
       </c>
       <c r="J19">
-        <v>1.046638092724855</v>
+        <v>1.000377405060444</v>
       </c>
       <c r="K19">
-        <v>0.9183882551972828</v>
+        <v>0.9997437942695206</v>
       </c>
       <c r="L19">
-        <v>1.108102480517437</v>
+        <v>1.000766456869952</v>
       </c>
       <c r="M19">
-        <v>0.975364802136925</v>
+        <v>0.9998652988563701</v>
       </c>
       <c r="N19">
-        <v>0.975364802136925</v>
+        <v>0.9998652988563701</v>
       </c>
       <c r="O19">
-        <v>0.9591209167603333</v>
+        <v>0.9996907915820935</v>
       </c>
       <c r="P19">
-        <v>0.9563726198237109</v>
+        <v>0.9998247973274204</v>
       </c>
       <c r="Q19">
-        <v>0.956372619823711</v>
+        <v>0.9998247973274204</v>
       </c>
       <c r="R19">
-        <v>0.9468765286671039</v>
+        <v>0.9998045465629455</v>
       </c>
       <c r="S19">
-        <v>0.9468765286671039</v>
+        <v>0.9998045465629455</v>
       </c>
       <c r="T19">
-        <v>0.9921987778822633</v>
+        <v>0.999964980828441</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.001835344321014</v>
+        <v>1.001747109289765</v>
       </c>
       <c r="D20">
-        <v>1.000984810210328</v>
+        <v>0.9968235343965338</v>
       </c>
       <c r="E20">
-        <v>1.000984810210328</v>
+        <v>0.9968235343965338</v>
       </c>
       <c r="F20">
-        <v>0.9959755310722967</v>
+        <v>1.000114602751336</v>
       </c>
       <c r="G20">
-        <v>0.9959755310722967</v>
+        <v>1.000114602751336</v>
       </c>
       <c r="H20">
-        <v>0.9999931634434813</v>
+        <v>0.9981015328578211</v>
       </c>
       <c r="I20">
-        <v>1.003584956657818</v>
+        <v>1.001358689270315</v>
       </c>
       <c r="J20">
-        <v>0.9999169240891352</v>
+        <v>1.001019759060635</v>
       </c>
       <c r="K20">
-        <v>0.9959755310722967</v>
+        <v>1.000114602751336</v>
       </c>
       <c r="L20">
-        <v>1.001835344321014</v>
+        <v>1.001747109289765</v>
       </c>
       <c r="M20">
-        <v>1.001410077265672</v>
+        <v>0.9992853218431494</v>
       </c>
       <c r="N20">
-        <v>1.001410077265672</v>
+        <v>0.9992853218431494</v>
       </c>
       <c r="O20">
-        <v>1.000937772658275</v>
+        <v>0.9988907255147067</v>
       </c>
       <c r="P20">
-        <v>0.99959856186788</v>
+        <v>0.9995617488125449</v>
       </c>
       <c r="Q20">
-        <v>0.99959856186788</v>
+        <v>0.9995617488125449</v>
       </c>
       <c r="R20">
-        <v>0.9986928041689842</v>
+        <v>0.9996999622972427</v>
       </c>
       <c r="S20">
-        <v>0.9986928041689842</v>
+        <v>0.9996999622972427</v>
       </c>
       <c r="T20">
-        <v>1.000381788299012</v>
+        <v>0.9998608712710677</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.998965544728741</v>
+        <v>1.001621355836493</v>
       </c>
       <c r="D21">
-        <v>0.9969962218325645</v>
+        <v>0.9955545045513703</v>
       </c>
       <c r="E21">
-        <v>0.9969962218325645</v>
+        <v>0.9955545045513703</v>
       </c>
       <c r="F21">
-        <v>1.004659365472778</v>
+        <v>1.001644542613686</v>
       </c>
       <c r="G21">
-        <v>1.004659365472778</v>
+        <v>1.001644542613686</v>
       </c>
       <c r="H21">
-        <v>0.9992120032498443</v>
+        <v>0.9974294258030492</v>
       </c>
       <c r="I21">
-        <v>0.9950526887313751</v>
+        <v>1.001411607248095</v>
       </c>
       <c r="J21">
-        <v>1.000842086591448</v>
+        <v>1.001232936690858</v>
       </c>
       <c r="K21">
-        <v>1.004659365472778</v>
+        <v>1.001644542613686</v>
       </c>
       <c r="L21">
-        <v>0.998965544728741</v>
+        <v>1.001621355836493</v>
       </c>
       <c r="M21">
-        <v>0.9979808832806527</v>
+        <v>0.9985879301939315</v>
       </c>
       <c r="N21">
-        <v>0.9979808832806527</v>
+        <v>0.9985879301939315</v>
       </c>
       <c r="O21">
-        <v>0.9983912566037166</v>
+        <v>0.9982017620636374</v>
       </c>
       <c r="P21">
-        <v>1.000207044011361</v>
+        <v>0.9996068010005162</v>
       </c>
       <c r="Q21">
-        <v>1.000207044011361</v>
+        <v>0.9996068010005162</v>
       </c>
       <c r="R21">
-        <v>1.001320124376715</v>
+        <v>1.000116236403809</v>
       </c>
       <c r="S21">
-        <v>1.001320124376715</v>
+        <v>1.000116236403809</v>
       </c>
       <c r="T21">
-        <v>0.9992879851011253</v>
+        <v>0.9998157287905919</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.005441383676958</v>
+        <v>1.004386181296131</v>
       </c>
       <c r="D22">
-        <v>0.9952514822828413</v>
+        <v>0.9903977106874371</v>
       </c>
       <c r="E22">
-        <v>0.9952514822828413</v>
+        <v>0.9903977106874371</v>
       </c>
       <c r="F22">
-        <v>0.992511283384468</v>
+        <v>1.001769290383193</v>
       </c>
       <c r="G22">
-        <v>0.992511283384468</v>
+        <v>1.001769290383193</v>
       </c>
       <c r="H22">
-        <v>0.9978402876979723</v>
+        <v>0.994507934488063</v>
       </c>
       <c r="I22">
-        <v>1.01230760589301</v>
+        <v>1.003874923888336</v>
       </c>
       <c r="J22">
-        <v>1.000159430137175</v>
+        <v>1.002788149756293</v>
       </c>
       <c r="K22">
-        <v>0.992511283384468</v>
+        <v>1.001769290383193</v>
       </c>
       <c r="L22">
-        <v>1.005441383676958</v>
+        <v>1.004386181296131</v>
       </c>
       <c r="M22">
-        <v>1.000346432979899</v>
+        <v>0.997391945991784</v>
       </c>
       <c r="N22">
-        <v>1.000346432979899</v>
+        <v>0.997391945991784</v>
       </c>
       <c r="O22">
-        <v>0.999511051219257</v>
+        <v>0.9964306088238771</v>
       </c>
       <c r="P22">
-        <v>0.9977347164480891</v>
+        <v>0.9988510607889204</v>
       </c>
       <c r="Q22">
-        <v>0.9977347164480891</v>
+        <v>0.9988510607889204</v>
       </c>
       <c r="R22">
-        <v>0.9964288581821839</v>
+        <v>0.9995806181874886</v>
       </c>
       <c r="S22">
-        <v>0.9964288581821839</v>
+        <v>0.9995806181874886</v>
       </c>
       <c r="T22">
-        <v>1.000585245512071</v>
+        <v>0.9996206984165754</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.005552455520522</v>
+      </c>
+      <c r="D23">
+        <v>0.9838330261484368</v>
+      </c>
+      <c r="E23">
+        <v>0.9838330261484368</v>
+      </c>
+      <c r="F23">
+        <v>1.007414458754105</v>
+      </c>
+      <c r="G23">
+        <v>1.007414458754105</v>
+      </c>
+      <c r="H23">
+        <v>0.9904879937852079</v>
+      </c>
+      <c r="I23">
+        <v>1.003632921732498</v>
+      </c>
+      <c r="J23">
+        <v>1.004615272423444</v>
+      </c>
+      <c r="K23">
+        <v>1.007414458754105</v>
+      </c>
+      <c r="L23">
+        <v>1.005552455520522</v>
+      </c>
+      <c r="M23">
+        <v>0.9946927408344792</v>
+      </c>
+      <c r="N23">
+        <v>0.9946927408344792</v>
+      </c>
+      <c r="O23">
+        <v>0.993291158484722</v>
+      </c>
+      <c r="P23">
+        <v>0.9989333134743544</v>
+      </c>
+      <c r="Q23">
+        <v>0.9989333134743544</v>
+      </c>
+      <c r="R23">
+        <v>1.001053599794292</v>
+      </c>
+      <c r="S23">
+        <v>1.001053599794292</v>
+      </c>
+      <c r="T23">
+        <v>0.9992560213940355</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.036560652190417</v>
+      </c>
+      <c r="D24">
+        <v>0.9627291481855711</v>
+      </c>
+      <c r="E24">
+        <v>0.9627291481855711</v>
+      </c>
+      <c r="F24">
+        <v>0.842034489381037</v>
+      </c>
+      <c r="G24">
+        <v>0.842034489381037</v>
+      </c>
+      <c r="H24">
+        <v>1.133592152021125</v>
+      </c>
+      <c r="I24">
+        <v>0.7548606782301578</v>
+      </c>
+      <c r="J24">
+        <v>0.9810804220031685</v>
+      </c>
+      <c r="K24">
+        <v>0.842034489381037</v>
+      </c>
+      <c r="L24">
+        <v>1.036560652190417</v>
+      </c>
+      <c r="M24">
+        <v>0.9996449001879942</v>
+      </c>
+      <c r="N24">
+        <v>0.9996449001879942</v>
+      </c>
+      <c r="O24">
+        <v>1.044293984132371</v>
+      </c>
+      <c r="P24">
+        <v>0.9471080965856752</v>
+      </c>
+      <c r="Q24">
+        <v>0.9471080965856752</v>
+      </c>
+      <c r="R24">
+        <v>0.9208396947845157</v>
+      </c>
+      <c r="S24">
+        <v>0.9208396947845157</v>
+      </c>
+      <c r="T24">
+        <v>0.9518095903352464</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.865996766667798</v>
+      </c>
+      <c r="D25">
+        <v>1.327823093911721</v>
+      </c>
+      <c r="E25">
+        <v>1.327823093911721</v>
+      </c>
+      <c r="F25">
+        <v>1.132955700809852</v>
+      </c>
+      <c r="G25">
+        <v>1.132955700809852</v>
+      </c>
+      <c r="H25">
+        <v>1.01153513116396</v>
+      </c>
+      <c r="I25">
+        <v>1.085968139150315</v>
+      </c>
+      <c r="J25">
+        <v>0.9442257582167499</v>
+      </c>
+      <c r="K25">
+        <v>1.132955700809852</v>
+      </c>
+      <c r="L25">
+        <v>0.865996766667798</v>
+      </c>
+      <c r="M25">
+        <v>1.09690993028976</v>
+      </c>
+      <c r="N25">
+        <v>1.09690993028976</v>
+      </c>
+      <c r="O25">
+        <v>1.068451663914493</v>
+      </c>
+      <c r="P25">
+        <v>1.10892518712979</v>
+      </c>
+      <c r="Q25">
+        <v>1.10892518712979</v>
+      </c>
+      <c r="R25">
+        <v>1.114932815549806</v>
+      </c>
+      <c r="S25">
+        <v>1.114932815549806</v>
+      </c>
+      <c r="T25">
+        <v>1.061417431653399</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.8563273687250841</v>
+      </c>
+      <c r="D26">
+        <v>2.18679862176494</v>
+      </c>
+      <c r="E26">
+        <v>2.18679862176494</v>
+      </c>
+      <c r="F26">
+        <v>0.6221858899617387</v>
+      </c>
+      <c r="G26">
+        <v>0.6221858899617387</v>
+      </c>
+      <c r="H26">
+        <v>1.333981246539724</v>
+      </c>
+      <c r="I26">
+        <v>1.077458620113567</v>
+      </c>
+      <c r="J26">
+        <v>0.781007349571718</v>
+      </c>
+      <c r="K26">
+        <v>0.6221858899617387</v>
+      </c>
+      <c r="L26">
+        <v>0.8563273687250841</v>
+      </c>
+      <c r="M26">
+        <v>1.521562995245012</v>
+      </c>
+      <c r="N26">
+        <v>1.521562995245012</v>
+      </c>
+      <c r="O26">
+        <v>1.459035745676583</v>
+      </c>
+      <c r="P26">
+        <v>1.221770626817254</v>
+      </c>
+      <c r="Q26">
+        <v>1.221770626817254</v>
+      </c>
+      <c r="R26">
+        <v>1.071874442603375</v>
+      </c>
+      <c r="S26">
+        <v>1.071874442603375</v>
+      </c>
+      <c r="T26">
+        <v>1.142959849446129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.022670578337719</v>
+      </c>
+      <c r="D27">
+        <v>0.6738976979639911</v>
+      </c>
+      <c r="E27">
+        <v>0.6738976979639911</v>
+      </c>
+      <c r="F27">
+        <v>0.9043021779941286</v>
+      </c>
+      <c r="G27">
+        <v>0.9043021779941286</v>
+      </c>
+      <c r="H27">
+        <v>1.14632668909471</v>
+      </c>
+      <c r="I27">
+        <v>0.658324503583533</v>
+      </c>
+      <c r="J27">
+        <v>0.9921492804894084</v>
+      </c>
+      <c r="K27">
+        <v>0.9043021779941286</v>
+      </c>
+      <c r="L27">
+        <v>1.022670578337719</v>
+      </c>
+      <c r="M27">
+        <v>0.8482841381508548</v>
+      </c>
+      <c r="N27">
+        <v>0.8482841381508548</v>
+      </c>
+      <c r="O27">
+        <v>0.94763165513214</v>
+      </c>
+      <c r="P27">
+        <v>0.8669568180986128</v>
+      </c>
+      <c r="Q27">
+        <v>0.8669568180986128</v>
+      </c>
+      <c r="R27">
+        <v>0.8762931580724918</v>
+      </c>
+      <c r="S27">
+        <v>0.8762931580724918</v>
+      </c>
+      <c r="T27">
+        <v>0.8996118212439149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.064042314452548</v>
+      </c>
+      <c r="D28">
+        <v>0.5314321357735201</v>
+      </c>
+      <c r="E28">
+        <v>0.5314321357735201</v>
+      </c>
+      <c r="F28">
+        <v>1.095547119827699</v>
+      </c>
+      <c r="G28">
+        <v>1.095547119827699</v>
+      </c>
+      <c r="H28">
+        <v>0.8818064880173252</v>
+      </c>
+      <c r="I28">
+        <v>1.082596965633219</v>
+      </c>
+      <c r="J28">
+        <v>1.067522480680601</v>
+      </c>
+      <c r="K28">
+        <v>1.095547119827699</v>
+      </c>
+      <c r="L28">
+        <v>1.064042314452548</v>
+      </c>
+      <c r="M28">
+        <v>0.797737225113034</v>
+      </c>
+      <c r="N28">
+        <v>0.797737225113034</v>
+      </c>
+      <c r="O28">
+        <v>0.8257603127477977</v>
+      </c>
+      <c r="P28">
+        <v>0.8970071900179223</v>
+      </c>
+      <c r="Q28">
+        <v>0.8970071900179223</v>
+      </c>
+      <c r="R28">
+        <v>0.9466421724703664</v>
+      </c>
+      <c r="S28">
+        <v>0.9466421724703664</v>
+      </c>
+      <c r="T28">
+        <v>0.9538245840641518</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.068067791521531</v>
+      </c>
+      <c r="D29">
+        <v>0.647891706818863</v>
+      </c>
+      <c r="E29">
+        <v>0.647891706818863</v>
+      </c>
+      <c r="F29">
+        <v>1.050008510519962</v>
+      </c>
+      <c r="G29">
+        <v>1.050008510519962</v>
+      </c>
+      <c r="H29">
+        <v>0.8984742588605055</v>
+      </c>
+      <c r="I29">
+        <v>1.087570254587731</v>
+      </c>
+      <c r="J29">
+        <v>1.057630992338299</v>
+      </c>
+      <c r="K29">
+        <v>1.050008510519962</v>
+      </c>
+      <c r="L29">
+        <v>1.068067791521531</v>
+      </c>
+      <c r="M29">
+        <v>0.8579797491701968</v>
+      </c>
+      <c r="N29">
+        <v>0.8579797491701968</v>
+      </c>
+      <c r="O29">
+        <v>0.8714779190669665</v>
+      </c>
+      <c r="P29">
+        <v>0.9219893362867851</v>
+      </c>
+      <c r="Q29">
+        <v>0.9219893362867851</v>
+      </c>
+      <c r="R29">
+        <v>0.9539941298450794</v>
+      </c>
+      <c r="S29">
+        <v>0.9539941298450794</v>
+      </c>
+      <c r="T29">
+        <v>0.968273919107815</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.07471355884995</v>
+      </c>
+      <c r="D30">
+        <v>0.8805045755834898</v>
+      </c>
+      <c r="E30">
+        <v>0.8805045755834898</v>
+      </c>
+      <c r="F30">
+        <v>0.9613796120549448</v>
+      </c>
+      <c r="G30">
+        <v>0.9613796120549448</v>
+      </c>
+      <c r="H30">
+        <v>0.932000081786625</v>
+      </c>
+      <c r="I30">
+        <v>1.09630422983126</v>
+      </c>
+      <c r="J30">
+        <v>1.037566307774397</v>
+      </c>
+      <c r="K30">
+        <v>0.9613796120549448</v>
+      </c>
+      <c r="L30">
+        <v>1.07471355884995</v>
+      </c>
+      <c r="M30">
+        <v>0.9776090672167197</v>
+      </c>
+      <c r="N30">
+        <v>0.9776090672167197</v>
+      </c>
+      <c r="O30">
+        <v>0.9624060720733548</v>
+      </c>
+      <c r="P30">
+        <v>0.9721992488294614</v>
+      </c>
+      <c r="Q30">
+        <v>0.9721992488294614</v>
+      </c>
+      <c r="R30">
+        <v>0.9694943396358323</v>
+      </c>
+      <c r="S30">
+        <v>0.9694943396358323</v>
+      </c>
+      <c r="T30">
+        <v>0.997078060980111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.108102480517437</v>
+      </c>
+      <c r="D31">
+        <v>0.842627123756413</v>
+      </c>
+      <c r="E31">
+        <v>0.842627123756413</v>
+      </c>
+      <c r="F31">
+        <v>0.9183882551972828</v>
+      </c>
+      <c r="G31">
+        <v>0.9183882551972828</v>
+      </c>
+      <c r="H31">
+        <v>0.9266331460071499</v>
+      </c>
+      <c r="I31">
+        <v>1.110803569090442</v>
+      </c>
+      <c r="J31">
+        <v>1.046638092724855</v>
+      </c>
+      <c r="K31">
+        <v>0.9183882551972828</v>
+      </c>
+      <c r="L31">
+        <v>1.108102480517437</v>
+      </c>
+      <c r="M31">
+        <v>0.975364802136925</v>
+      </c>
+      <c r="N31">
+        <v>0.975364802136925</v>
+      </c>
+      <c r="O31">
+        <v>0.9591209167603333</v>
+      </c>
+      <c r="P31">
+        <v>0.9563726198237109</v>
+      </c>
+      <c r="Q31">
+        <v>0.956372619823711</v>
+      </c>
+      <c r="R31">
+        <v>0.9468765286671039</v>
+      </c>
+      <c r="S31">
+        <v>0.9468765286671039</v>
+      </c>
+      <c r="T31">
+        <v>0.9921987778822633</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.051578678356165</v>
+      </c>
+      <c r="D32">
+        <v>0.4091111008301371</v>
+      </c>
+      <c r="E32">
+        <v>0.4091111008301371</v>
+      </c>
+      <c r="F32">
+        <v>1.172748350684931</v>
+      </c>
+      <c r="G32">
+        <v>1.172748350684931</v>
+      </c>
+      <c r="H32">
+        <v>0.8582965761643833</v>
+      </c>
+      <c r="I32">
+        <v>1.065914383287671</v>
+      </c>
+      <c r="J32">
+        <v>1.078372487671233</v>
+      </c>
+      <c r="K32">
+        <v>1.172748350684931</v>
+      </c>
+      <c r="L32">
+        <v>1.051578678356165</v>
+      </c>
+      <c r="M32">
+        <v>0.730344889593151</v>
+      </c>
+      <c r="N32">
+        <v>0.730344889593151</v>
+      </c>
+      <c r="O32">
+        <v>0.7729954517835619</v>
+      </c>
+      <c r="P32">
+        <v>0.8778127099570779</v>
+      </c>
+      <c r="Q32">
+        <v>0.8778127099570779</v>
+      </c>
+      <c r="R32">
+        <v>0.9515466201390412</v>
+      </c>
+      <c r="S32">
+        <v>0.9515466201390412</v>
+      </c>
+      <c r="T32">
+        <v>0.9393369294990869</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.171402108947368</v>
+      </c>
+      <c r="D33">
+        <v>1.164093649394737</v>
+      </c>
+      <c r="E33">
+        <v>1.164093649394737</v>
+      </c>
+      <c r="F33">
+        <v>0.7414934505263158</v>
+      </c>
+      <c r="G33">
+        <v>0.7414934505263158</v>
+      </c>
+      <c r="H33">
+        <v>0.7807699474210525</v>
+      </c>
+      <c r="I33">
+        <v>1.912085023157895</v>
+      </c>
+      <c r="J33">
+        <v>1.014608282105263</v>
+      </c>
+      <c r="K33">
+        <v>0.7414934505263158</v>
+      </c>
+      <c r="L33">
+        <v>1.171402108947368</v>
+      </c>
+      <c r="M33">
+        <v>1.167747879171053</v>
+      </c>
+      <c r="N33">
+        <v>1.167747879171053</v>
+      </c>
+      <c r="O33">
+        <v>1.038755235254386</v>
+      </c>
+      <c r="P33">
+        <v>1.025663069622807</v>
+      </c>
+      <c r="Q33">
+        <v>1.025663069622807</v>
+      </c>
+      <c r="R33">
+        <v>0.9546206648486844</v>
+      </c>
+      <c r="S33">
+        <v>0.9546206648486844</v>
+      </c>
+      <c r="T33">
+        <v>1.130742076925439</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.080195272105263</v>
+      </c>
+      <c r="D34">
+        <v>0.07967007357894738</v>
+      </c>
+      <c r="E34">
+        <v>0.07967007357894738</v>
+      </c>
+      <c r="F34">
+        <v>1.835661598421052</v>
+      </c>
+      <c r="G34">
+        <v>1.835661598421052</v>
+      </c>
+      <c r="H34">
+        <v>0.4527248089473684</v>
+      </c>
+      <c r="I34">
+        <v>0.8672365826315787</v>
+      </c>
+      <c r="J34">
+        <v>1.265984031578947</v>
+      </c>
+      <c r="K34">
+        <v>1.835661598421052</v>
+      </c>
+      <c r="L34">
+        <v>1.080195272105263</v>
+      </c>
+      <c r="M34">
+        <v>0.5799326728421054</v>
+      </c>
+      <c r="N34">
+        <v>0.5799326728421054</v>
+      </c>
+      <c r="O34">
+        <v>0.5375300515438597</v>
+      </c>
+      <c r="P34">
+        <v>0.998508981368421</v>
+      </c>
+      <c r="Q34">
+        <v>0.998508981368421</v>
+      </c>
+      <c r="R34">
+        <v>1.207797135631579</v>
+      </c>
+      <c r="S34">
+        <v>1.207797135631579</v>
+      </c>
+      <c r="T34">
+        <v>0.9302453945438597</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.450719208096858</v>
+      </c>
+      <c r="D35">
+        <v>0.5138920080822273</v>
+      </c>
+      <c r="E35">
+        <v>0.5138920080822273</v>
+      </c>
+      <c r="F35">
+        <v>0.6895545908776354</v>
+      </c>
+      <c r="G35">
+        <v>0.6895545908776354</v>
+      </c>
+      <c r="H35">
+        <v>0.7035867627999202</v>
+      </c>
+      <c r="I35">
+        <v>1.349746703891961</v>
+      </c>
+      <c r="J35">
+        <v>1.188550465829092</v>
+      </c>
+      <c r="K35">
+        <v>0.6895545908776354</v>
+      </c>
+      <c r="L35">
+        <v>1.450719208096858</v>
+      </c>
+      <c r="M35">
+        <v>0.9823056080895426</v>
+      </c>
+      <c r="N35">
+        <v>0.9823056080895426</v>
+      </c>
+      <c r="O35">
+        <v>0.8893993263263352</v>
+      </c>
+      <c r="P35">
+        <v>0.8847219356855734</v>
+      </c>
+      <c r="Q35">
+        <v>0.8847219356855734</v>
+      </c>
+      <c r="R35">
+        <v>0.835930099483589</v>
+      </c>
+      <c r="S35">
+        <v>0.835930099483589</v>
+      </c>
+      <c r="T35">
+        <v>0.9826749565962821</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.001835344321014</v>
+      </c>
+      <c r="D36">
+        <v>1.000984810210328</v>
+      </c>
+      <c r="E36">
+        <v>1.000984810210328</v>
+      </c>
+      <c r="F36">
+        <v>0.9959755310722967</v>
+      </c>
+      <c r="G36">
+        <v>0.9959755310722967</v>
+      </c>
+      <c r="H36">
+        <v>0.9999931634434813</v>
+      </c>
+      <c r="I36">
+        <v>1.003584956657818</v>
+      </c>
+      <c r="J36">
+        <v>0.9999169240891352</v>
+      </c>
+      <c r="K36">
+        <v>0.9959755310722967</v>
+      </c>
+      <c r="L36">
+        <v>1.001835344321014</v>
+      </c>
+      <c r="M36">
+        <v>1.001410077265672</v>
+      </c>
+      <c r="N36">
+        <v>1.001410077265672</v>
+      </c>
+      <c r="O36">
+        <v>1.000937772658275</v>
+      </c>
+      <c r="P36">
+        <v>0.99959856186788</v>
+      </c>
+      <c r="Q36">
+        <v>0.99959856186788</v>
+      </c>
+      <c r="R36">
+        <v>0.9986928041689842</v>
+      </c>
+      <c r="S36">
+        <v>0.9986928041689842</v>
+      </c>
+      <c r="T36">
+        <v>1.000381788299012</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.998965544728741</v>
+      </c>
+      <c r="D37">
+        <v>0.9969962218325645</v>
+      </c>
+      <c r="E37">
+        <v>0.9969962218325645</v>
+      </c>
+      <c r="F37">
+        <v>1.004659365472778</v>
+      </c>
+      <c r="G37">
+        <v>1.004659365472778</v>
+      </c>
+      <c r="H37">
+        <v>0.9992120032498443</v>
+      </c>
+      <c r="I37">
+        <v>0.9950526887313751</v>
+      </c>
+      <c r="J37">
+        <v>1.000842086591448</v>
+      </c>
+      <c r="K37">
+        <v>1.004659365472778</v>
+      </c>
+      <c r="L37">
+        <v>0.998965544728741</v>
+      </c>
+      <c r="M37">
+        <v>0.9979808832806527</v>
+      </c>
+      <c r="N37">
+        <v>0.9979808832806527</v>
+      </c>
+      <c r="O37">
+        <v>0.9983912566037166</v>
+      </c>
+      <c r="P37">
+        <v>1.000207044011361</v>
+      </c>
+      <c r="Q37">
+        <v>1.000207044011361</v>
+      </c>
+      <c r="R37">
+        <v>1.001320124376715</v>
+      </c>
+      <c r="S37">
+        <v>1.001320124376715</v>
+      </c>
+      <c r="T37">
+        <v>0.9992879851011253</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.005441383676958</v>
+      </c>
+      <c r="D38">
+        <v>0.9952514822828413</v>
+      </c>
+      <c r="E38">
+        <v>0.9952514822828413</v>
+      </c>
+      <c r="F38">
+        <v>0.992511283384468</v>
+      </c>
+      <c r="G38">
+        <v>0.992511283384468</v>
+      </c>
+      <c r="H38">
+        <v>0.9978402876979723</v>
+      </c>
+      <c r="I38">
+        <v>1.01230760589301</v>
+      </c>
+      <c r="J38">
+        <v>1.000159430137175</v>
+      </c>
+      <c r="K38">
+        <v>0.992511283384468</v>
+      </c>
+      <c r="L38">
+        <v>1.005441383676958</v>
+      </c>
+      <c r="M38">
+        <v>1.000346432979899</v>
+      </c>
+      <c r="N38">
+        <v>1.000346432979899</v>
+      </c>
+      <c r="O38">
+        <v>0.999511051219257</v>
+      </c>
+      <c r="P38">
+        <v>0.9977347164480891</v>
+      </c>
+      <c r="Q38">
+        <v>0.9977347164480891</v>
+      </c>
+      <c r="R38">
+        <v>0.9964288581821839</v>
+      </c>
+      <c r="S38">
+        <v>0.9964288581821839</v>
+      </c>
+      <c r="T38">
+        <v>1.000585245512071</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.018282932733074</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9895031535435318</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9895031535435318</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9629418305346484</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9629418305346484</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9970597268940469</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.04257592811101</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.000261825133806</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9629418305346484</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.018282932733074</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.003893043138303</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.003893043138303</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.001615271056884</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9902426389370848</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9902426389370848</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9834174368364756</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9834174368364756</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.001770899491686</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.096960026969079</v>
+      </c>
+      <c r="D40">
+        <v>0.8240726861844295</v>
+      </c>
+      <c r="E40">
+        <v>0.8240726861844295</v>
+      </c>
+      <c r="F40">
+        <v>0.9368140319446402</v>
+      </c>
+      <c r="G40">
+        <v>0.9368140319446402</v>
+      </c>
+      <c r="H40">
+        <v>0.8514021050897128</v>
+      </c>
+      <c r="I40">
+        <v>1.413750753213754</v>
+      </c>
+      <c r="J40">
+        <v>1.046768101011141</v>
+      </c>
+      <c r="K40">
+        <v>0.9368140319446402</v>
+      </c>
+      <c r="L40">
+        <v>1.096960026969079</v>
+      </c>
+      <c r="M40">
+        <v>0.9605163565767543</v>
+      </c>
+      <c r="N40">
+        <v>0.9605163565767543</v>
+      </c>
+      <c r="O40">
+        <v>0.9241449394144071</v>
+      </c>
+      <c r="P40">
+        <v>0.952615581699383</v>
+      </c>
+      <c r="Q40">
+        <v>0.952615581699383</v>
+      </c>
+      <c r="R40">
+        <v>0.9486651942606973</v>
+      </c>
+      <c r="S40">
+        <v>0.9486651942606973</v>
+      </c>
+      <c r="T40">
+        <v>1.028294617402126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9963561422900234</v>
+      </c>
+      <c r="D41">
+        <v>0.9823359725868783</v>
+      </c>
+      <c r="E41">
+        <v>0.9823359725868783</v>
+      </c>
+      <c r="F41">
+        <v>1.015707289115704</v>
+      </c>
+      <c r="G41">
+        <v>1.015707289115704</v>
+      </c>
+      <c r="H41">
+        <v>1.001252670299533</v>
+      </c>
+      <c r="I41">
+        <v>0.9728236755192892</v>
+      </c>
+      <c r="J41">
+        <v>1.001733091709133</v>
+      </c>
+      <c r="K41">
+        <v>1.015707289115704</v>
+      </c>
+      <c r="L41">
+        <v>0.9963561422900234</v>
+      </c>
+      <c r="M41">
+        <v>0.9893460574384509</v>
+      </c>
+      <c r="N41">
+        <v>0.9893460574384509</v>
+      </c>
+      <c r="O41">
+        <v>0.9933149283921449</v>
+      </c>
+      <c r="P41">
+        <v>0.9981331346642017</v>
+      </c>
+      <c r="Q41">
+        <v>0.9981331346642017</v>
+      </c>
+      <c r="R41">
+        <v>1.002526673277077</v>
+      </c>
+      <c r="S41">
+        <v>1.002526673277077</v>
+      </c>
+      <c r="T41">
+        <v>0.9950348069200934</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.098933453432497</v>
+      </c>
+      <c r="D42">
+        <v>0.8424424684976133</v>
+      </c>
+      <c r="E42">
+        <v>0.8424424684976133</v>
+      </c>
+      <c r="F42">
+        <v>0.9289101314876899</v>
+      </c>
+      <c r="G42">
+        <v>0.9289101314876899</v>
+      </c>
+      <c r="H42">
+        <v>0.8497333001421523</v>
+      </c>
+      <c r="I42">
+        <v>1.43099811415425</v>
+      </c>
+      <c r="J42">
+        <v>1.045022084098574</v>
+      </c>
+      <c r="K42">
+        <v>0.9289101314876899</v>
+      </c>
+      <c r="L42">
+        <v>1.098933453432497</v>
+      </c>
+      <c r="M42">
+        <v>0.9706879609650553</v>
+      </c>
+      <c r="N42">
+        <v>0.9706879609650553</v>
+      </c>
+      <c r="O42">
+        <v>0.9303697406907543</v>
+      </c>
+      <c r="P42">
+        <v>0.9567620178059335</v>
+      </c>
+      <c r="Q42">
+        <v>0.9567620178059334</v>
+      </c>
+      <c r="R42">
+        <v>0.9497990462263725</v>
+      </c>
+      <c r="S42">
+        <v>0.9497990462263725</v>
+      </c>
+      <c r="T42">
+        <v>1.032673258635463</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha3F-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha3F-HW15.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.005289707421419</v>
+        <v>1.001747109289765</v>
       </c>
       <c r="D3">
-        <v>0.9741347154470948</v>
+        <v>0.9968235343965338</v>
       </c>
       <c r="E3">
-        <v>1.003187740967027</v>
+        <v>0.9968235343965338</v>
       </c>
       <c r="F3">
-        <v>1.005289707421419</v>
+        <v>1.000114602751336</v>
       </c>
       <c r="G3">
-        <v>1.00379818931829</v>
+        <v>1.000114602751336</v>
       </c>
       <c r="H3">
-        <v>0.9941564755648994</v>
+        <v>0.9981015328578211</v>
       </c>
       <c r="I3">
-        <v>1.003384644211949</v>
+        <v>1.001358689270315</v>
       </c>
       <c r="J3">
-        <v>0.9741347154470948</v>
+        <v>1.001019759060635</v>
       </c>
       <c r="K3">
-        <v>1.005289707421419</v>
+        <v>1.000114602751336</v>
       </c>
       <c r="L3">
-        <v>1.003187740967027</v>
+        <v>1.001747109289765</v>
       </c>
       <c r="M3">
-        <v>0.988661228207061</v>
+        <v>0.9992853218431494</v>
       </c>
       <c r="N3">
-        <v>0.988661228207061</v>
+        <v>0.9992853218431494</v>
       </c>
       <c r="O3">
-        <v>0.9904929773263405</v>
+        <v>0.9988907255147067</v>
       </c>
       <c r="P3">
-        <v>0.994204054611847</v>
+        <v>0.9995617488125449</v>
       </c>
       <c r="Q3">
-        <v>0.994204054611847</v>
+        <v>0.9995617488125449</v>
       </c>
       <c r="R3">
-        <v>0.9969754678142401</v>
+        <v>0.9996999622972427</v>
       </c>
       <c r="S3">
-        <v>0.9969754678142401</v>
+        <v>0.9996999622972427</v>
       </c>
       <c r="T3">
-        <v>0.9973252454884465</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>0.9998608712710677</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.011530759007626</v>
+        <v>1.096960026969079</v>
       </c>
       <c r="D4">
-        <v>0.9510763359764055</v>
+        <v>0.8240726861844295</v>
       </c>
       <c r="E4">
-        <v>1.005697298906681</v>
+        <v>0.8240726861844295</v>
       </c>
       <c r="F4">
-        <v>1.011530759007626</v>
+        <v>0.9368140319446402</v>
       </c>
       <c r="G4">
-        <v>1.006633282410023</v>
+        <v>0.9368140319446402</v>
       </c>
       <c r="H4">
-        <v>0.9884501226941569</v>
+        <v>0.8514021050897128</v>
       </c>
       <c r="I4">
-        <v>1.006546964288916</v>
+        <v>1.413750753213754</v>
       </c>
       <c r="J4">
-        <v>0.9510763359764055</v>
+        <v>1.046768101011141</v>
       </c>
       <c r="K4">
-        <v>1.011530759007626</v>
+        <v>0.9368140319446402</v>
       </c>
       <c r="L4">
-        <v>1.005697298906681</v>
+        <v>1.096960026969079</v>
       </c>
       <c r="M4">
-        <v>0.9783868174415435</v>
+        <v>0.9605163565767543</v>
       </c>
       <c r="N4">
-        <v>0.9783868174415435</v>
+        <v>0.9605163565767543</v>
       </c>
       <c r="O4">
-        <v>0.981741252525748</v>
+        <v>0.9241449394144071</v>
       </c>
       <c r="P4">
-        <v>0.9894347979635709</v>
+        <v>0.952615581699383</v>
       </c>
       <c r="Q4">
-        <v>0.9894347979635709</v>
+        <v>0.952615581699383</v>
       </c>
       <c r="R4">
-        <v>0.9949587882245847</v>
+        <v>0.9486651942606973</v>
       </c>
       <c r="S4">
-        <v>0.9949587882245847</v>
+        <v>0.9486651942606973</v>
       </c>
       <c r="T4">
-        <v>0.9949891272139681</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>1.028294617402126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.018744442229538</v>
+        <v>1.09437070561239</v>
       </c>
       <c r="D5">
-        <v>0.9059602991425386</v>
+        <v>0.8424064575485577</v>
       </c>
       <c r="E5">
-        <v>1.012415007376709</v>
+        <v>0.8424064575485577</v>
       </c>
       <c r="F5">
-        <v>1.018744442229538</v>
+        <v>0.9599654796469758</v>
       </c>
       <c r="G5">
-        <v>1.015196624279876</v>
+        <v>0.9599654796469758</v>
       </c>
       <c r="H5">
-        <v>0.9780103067036827</v>
+        <v>0.9132495316325658</v>
       </c>
       <c r="I5">
-        <v>1.012523824490778</v>
+        <v>1.106788984768008</v>
       </c>
       <c r="J5">
-        <v>0.9059602991425386</v>
+        <v>1.049022785259366</v>
       </c>
       <c r="K5">
-        <v>1.018744442229538</v>
+        <v>0.9599654796469758</v>
       </c>
       <c r="L5">
-        <v>1.012415007376709</v>
+        <v>1.09437070561239</v>
       </c>
       <c r="M5">
-        <v>0.959187653259624</v>
+        <v>0.9683885815804737</v>
       </c>
       <c r="N5">
-        <v>0.959187653259624</v>
+        <v>0.9683885815804737</v>
       </c>
       <c r="O5">
-        <v>0.9654618710743103</v>
+        <v>0.9500088982645044</v>
       </c>
       <c r="P5">
-        <v>0.9790399162495955</v>
+        <v>0.9655808809359744</v>
       </c>
       <c r="Q5">
-        <v>0.9790399162495955</v>
+        <v>0.9655808809359744</v>
       </c>
       <c r="R5">
-        <v>0.9889660477445812</v>
+        <v>0.9641770306137247</v>
       </c>
       <c r="S5">
-        <v>0.9889660477445812</v>
+        <v>0.9641770306137247</v>
       </c>
       <c r="T5">
-        <v>0.9904750840371873</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>0.9943006574113106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.026562863678895</v>
+        <v>1.450719208096858</v>
       </c>
       <c r="D6">
-        <v>0.8638096861558497</v>
+        <v>0.5138920080822273</v>
       </c>
       <c r="E6">
-        <v>1.015876567878578</v>
+        <v>0.5138920080822273</v>
       </c>
       <c r="F6">
-        <v>1.026562863678895</v>
+        <v>0.6895545908776354</v>
       </c>
       <c r="G6">
-        <v>1.033422509276644</v>
+        <v>0.6895545908776354</v>
       </c>
       <c r="H6">
-        <v>0.9667029910773763</v>
+        <v>0.7035867627999202</v>
       </c>
       <c r="I6">
-        <v>1.01622395153391</v>
+        <v>1.349746703891961</v>
       </c>
       <c r="J6">
-        <v>0.8638096861558497</v>
+        <v>1.188550465829092</v>
       </c>
       <c r="K6">
-        <v>1.026562863678895</v>
+        <v>0.6895545908776354</v>
       </c>
       <c r="L6">
-        <v>1.015876567878578</v>
+        <v>1.450719208096858</v>
       </c>
       <c r="M6">
-        <v>0.9398431270172137</v>
+        <v>0.9823056080895426</v>
       </c>
       <c r="N6">
-        <v>0.9398431270172137</v>
+        <v>0.9823056080895426</v>
       </c>
       <c r="O6">
-        <v>0.948796415037268</v>
+        <v>0.8893993263263352</v>
       </c>
       <c r="P6">
-        <v>0.9687497059044409</v>
+        <v>0.8847219356855734</v>
       </c>
       <c r="Q6">
-        <v>0.9687497059044409</v>
+        <v>0.8847219356855734</v>
       </c>
       <c r="R6">
-        <v>0.9832029953480543</v>
+        <v>0.835930099483589</v>
       </c>
       <c r="S6">
-        <v>0.9832029953480543</v>
+        <v>0.835930099483589</v>
       </c>
       <c r="T6">
-        <v>0.9870997616002088</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>0.9826749565962821</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9997437942695195</v>
+        <v>1.001641761814095</v>
       </c>
       <c r="D7">
-        <v>0.9989641408427882</v>
+        <v>0.9704010119494194</v>
       </c>
       <c r="E7">
-        <v>1.000766456869952</v>
+        <v>0.9704010119494194</v>
       </c>
       <c r="F7">
-        <v>0.9997437942695195</v>
+        <v>1.012877854087792</v>
       </c>
       <c r="G7">
-        <v>1.0005963108944</v>
+        <v>1.012877854087792</v>
       </c>
       <c r="H7">
-        <v>0.99934177703354</v>
+        <v>0.9912783997862464</v>
       </c>
       <c r="I7">
-        <v>1.000377405060445</v>
+        <v>1.001329798795259</v>
       </c>
       <c r="J7">
-        <v>0.9989641408427882</v>
+        <v>1.004621921589987</v>
       </c>
       <c r="K7">
-        <v>0.9997437942695195</v>
+        <v>1.012877854087792</v>
       </c>
       <c r="L7">
-        <v>1.000766456869952</v>
+        <v>1.001641761814095</v>
       </c>
       <c r="M7">
-        <v>0.9998652988563701</v>
+        <v>0.9860213868817573</v>
       </c>
       <c r="N7">
-        <v>0.9998652988563701</v>
+        <v>0.9860213868817573</v>
       </c>
       <c r="O7">
-        <v>0.9996907915820934</v>
+        <v>0.987773724516587</v>
       </c>
       <c r="P7">
-        <v>0.9998247973274199</v>
+        <v>0.9949735426171021</v>
       </c>
       <c r="Q7">
-        <v>0.9998247973274198</v>
+        <v>0.9949735426171021</v>
       </c>
       <c r="R7">
-        <v>0.9998045465629447</v>
+        <v>0.9994496204847745</v>
       </c>
       <c r="S7">
-        <v>0.9998045465629447</v>
+        <v>0.9994496204847745</v>
       </c>
       <c r="T7">
-        <v>0.9999649808284407</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9970251246704663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000114602751337</v>
+        <v>0.998965544728741</v>
       </c>
       <c r="D8">
-        <v>0.9968235343965341</v>
+        <v>0.9969962218325645</v>
       </c>
       <c r="E8">
-        <v>1.001747109289765</v>
+        <v>0.9969962218325645</v>
       </c>
       <c r="F8">
-        <v>1.000114602751337</v>
+        <v>1.004659365472778</v>
       </c>
       <c r="G8">
-        <v>1.001358689270314</v>
+        <v>1.004659365472778</v>
       </c>
       <c r="H8">
-        <v>0.9981015328578207</v>
+        <v>0.9992120032498443</v>
       </c>
       <c r="I8">
-        <v>1.001019759060635</v>
+        <v>0.9950526887313751</v>
       </c>
       <c r="J8">
-        <v>0.9968235343965341</v>
+        <v>1.000842086591448</v>
       </c>
       <c r="K8">
-        <v>1.000114602751337</v>
+        <v>1.004659365472778</v>
       </c>
       <c r="L8">
-        <v>1.001747109289765</v>
+        <v>0.998965544728741</v>
       </c>
       <c r="M8">
-        <v>0.9992853218431493</v>
+        <v>0.9979808832806527</v>
       </c>
       <c r="N8">
-        <v>0.9992853218431493</v>
+        <v>0.9979808832806527</v>
       </c>
       <c r="O8">
-        <v>0.9988907255147064</v>
+        <v>0.9983912566037166</v>
       </c>
       <c r="P8">
-        <v>0.9995617488125451</v>
+        <v>1.000207044011361</v>
       </c>
       <c r="Q8">
-        <v>0.9995617488125451</v>
+        <v>1.000207044011361</v>
       </c>
       <c r="R8">
-        <v>0.9996999622972429</v>
+        <v>1.001320124376715</v>
       </c>
       <c r="S8">
-        <v>0.9996999622972429</v>
+        <v>1.001320124376715</v>
       </c>
       <c r="T8">
-        <v>0.9998608712710676</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9992879851011253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.001644542613685</v>
+        <v>1.005697298906681</v>
       </c>
       <c r="D9">
-        <v>0.9955545045513703</v>
+        <v>0.9510763359764055</v>
       </c>
       <c r="E9">
-        <v>1.001621355836493</v>
+        <v>0.9510763359764055</v>
       </c>
       <c r="F9">
-        <v>1.001644542613685</v>
+        <v>1.011530759007626</v>
       </c>
       <c r="G9">
-        <v>1.001411607248095</v>
+        <v>1.011530759007626</v>
       </c>
       <c r="H9">
-        <v>0.9974294258030492</v>
+        <v>0.9884501226941569</v>
       </c>
       <c r="I9">
-        <v>1.001232936690858</v>
+        <v>1.006633282410023</v>
       </c>
       <c r="J9">
-        <v>0.9955545045513703</v>
+        <v>1.006546964288916</v>
       </c>
       <c r="K9">
-        <v>1.001644542613685</v>
+        <v>1.011530759007626</v>
       </c>
       <c r="L9">
-        <v>1.001621355836493</v>
+        <v>1.005697298906681</v>
       </c>
       <c r="M9">
-        <v>0.9985879301939317</v>
+        <v>0.9783868174415435</v>
       </c>
       <c r="N9">
-        <v>0.9985879301939317</v>
+        <v>0.9783868174415435</v>
       </c>
       <c r="O9">
-        <v>0.9982017620636375</v>
+        <v>0.981741252525748</v>
       </c>
       <c r="P9">
-        <v>0.9996068010005162</v>
+        <v>0.9894347979635709</v>
       </c>
       <c r="Q9">
-        <v>0.9996068010005162</v>
+        <v>0.9894347979635709</v>
       </c>
       <c r="R9">
-        <v>1.000116236403809</v>
+        <v>0.9949587882245847</v>
       </c>
       <c r="S9">
-        <v>1.000116236403809</v>
+        <v>0.9949587882245847</v>
       </c>
       <c r="T9">
-        <v>0.9998157287905919</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.9949891272139681</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.001769290383193</v>
+        <v>1.465388190782621</v>
       </c>
       <c r="D10">
-        <v>0.9903977106874372</v>
+        <v>0.4935346502035878</v>
       </c>
       <c r="E10">
-        <v>1.004386181296131</v>
+        <v>0.4935346502035878</v>
       </c>
       <c r="F10">
-        <v>1.001769290383193</v>
+        <v>0.6720011694661769</v>
       </c>
       <c r="G10">
-        <v>1.003874923888336</v>
+        <v>0.6720011694661769</v>
       </c>
       <c r="H10">
-        <v>0.994507934488063</v>
+        <v>0.7009525828855278</v>
       </c>
       <c r="I10">
-        <v>1.002788149756293</v>
+        <v>1.355018899935564</v>
       </c>
       <c r="J10">
-        <v>0.9903977106874372</v>
+        <v>1.192850232394636</v>
       </c>
       <c r="K10">
-        <v>1.001769290383193</v>
+        <v>0.6720011694661769</v>
       </c>
       <c r="L10">
-        <v>1.004386181296131</v>
+        <v>1.465388190782621</v>
       </c>
       <c r="M10">
-        <v>0.9973919459917842</v>
+        <v>0.9794614204931041</v>
       </c>
       <c r="N10">
-        <v>0.9973919459917842</v>
+        <v>0.9794614204931041</v>
       </c>
       <c r="O10">
-        <v>0.9964306088238771</v>
+        <v>0.8866251412905787</v>
       </c>
       <c r="P10">
-        <v>0.9988510607889204</v>
+        <v>0.876974670150795</v>
       </c>
       <c r="Q10">
-        <v>0.9988510607889204</v>
+        <v>0.876974670150795</v>
       </c>
       <c r="R10">
-        <v>0.9995806181874884</v>
+        <v>0.8257312949796405</v>
       </c>
       <c r="S10">
-        <v>0.9995806181874884</v>
+        <v>0.8257312949796405</v>
       </c>
       <c r="T10">
-        <v>0.9996206984165754</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>0.9799576209446855</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.007414458754105</v>
+        <v>1.094016030072084</v>
       </c>
       <c r="D11">
-        <v>0.9838330261484368</v>
+        <v>0.7992747565692058</v>
       </c>
       <c r="E11">
-        <v>1.005552455520522</v>
+        <v>0.7992747565692058</v>
       </c>
       <c r="F11">
-        <v>1.007414458754105</v>
+        <v>0.9499385381643386</v>
       </c>
       <c r="G11">
-        <v>1.003632921732498</v>
+        <v>0.9499385381643386</v>
       </c>
       <c r="H11">
-        <v>0.9904879937852079</v>
+        <v>0.8528394512168465</v>
       </c>
       <c r="I11">
-        <v>1.004615272423444</v>
+        <v>1.390047462245685</v>
       </c>
       <c r="J11">
-        <v>0.9838330261484368</v>
+        <v>1.048973964102215</v>
       </c>
       <c r="K11">
-        <v>1.007414458754105</v>
+        <v>0.9499385381643386</v>
       </c>
       <c r="L11">
-        <v>1.005552455520522</v>
+        <v>1.094016030072084</v>
       </c>
       <c r="M11">
-        <v>0.9946927408344792</v>
+        <v>0.9466453933206448</v>
       </c>
       <c r="N11">
-        <v>0.9946927408344792</v>
+        <v>0.9466453933206448</v>
       </c>
       <c r="O11">
-        <v>0.993291158484722</v>
+        <v>0.9153767459527119</v>
       </c>
       <c r="P11">
-        <v>0.9989333134743544</v>
+        <v>0.9477431082685427</v>
       </c>
       <c r="Q11">
-        <v>0.9989333134743544</v>
+        <v>0.9477431082685427</v>
       </c>
       <c r="R11">
-        <v>1.001053599794292</v>
+        <v>0.9482919657424917</v>
       </c>
       <c r="S11">
-        <v>1.001053599794292</v>
+        <v>0.9482919657424917</v>
       </c>
       <c r="T11">
-        <v>0.9992560213940355</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>1.022515033728396</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.842034489381037</v>
+        <v>1.126831345326316</v>
       </c>
       <c r="D12">
-        <v>0.9627291481855713</v>
+        <v>0.8265524965747364</v>
       </c>
       <c r="E12">
-        <v>1.036560652190417</v>
+        <v>0.8265524965747364</v>
       </c>
       <c r="F12">
-        <v>0.842034489381037</v>
+        <v>0.9097870466315791</v>
       </c>
       <c r="G12">
-        <v>0.7548606782301578</v>
+        <v>0.9097870466315791</v>
       </c>
       <c r="H12">
-        <v>1.133592152021125</v>
+        <v>0.9126334913052635</v>
       </c>
       <c r="I12">
-        <v>0.9810804220031685</v>
+        <v>1.123947568037893</v>
       </c>
       <c r="J12">
-        <v>0.9627291481855713</v>
+        <v>1.054566790084211</v>
       </c>
       <c r="K12">
-        <v>0.842034489381037</v>
+        <v>0.9097870466315791</v>
       </c>
       <c r="L12">
-        <v>1.036560652190417</v>
+        <v>1.126831345326316</v>
       </c>
       <c r="M12">
-        <v>0.9996449001879943</v>
+        <v>0.9766919209505261</v>
       </c>
       <c r="N12">
-        <v>0.9996449001879943</v>
+        <v>0.9766919209505261</v>
       </c>
       <c r="O12">
-        <v>1.044293984132372</v>
+        <v>0.9553391110687719</v>
       </c>
       <c r="P12">
-        <v>0.9471080965856752</v>
+        <v>0.9543902961775438</v>
       </c>
       <c r="Q12">
-        <v>0.9471080965856752</v>
+        <v>0.9543902961775439</v>
       </c>
       <c r="R12">
-        <v>0.9208396947845157</v>
+        <v>0.9432394837910527</v>
       </c>
       <c r="S12">
-        <v>0.9208396947845157</v>
+        <v>0.9432394837910527</v>
       </c>
       <c r="T12">
-        <v>0.9518095903352464</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>0.9923864563266666</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.132955700809851</v>
+        <v>0.9837413446375788</v>
       </c>
       <c r="D13">
-        <v>1.327823093911721</v>
+        <v>1.052946358256515</v>
       </c>
       <c r="E13">
-        <v>0.865996766667798</v>
+        <v>1.052946358256515</v>
       </c>
       <c r="F13">
-        <v>1.132955700809851</v>
+        <v>0.9650804877325255</v>
       </c>
       <c r="G13">
-        <v>1.085968139150315</v>
+        <v>0.9650804877325255</v>
       </c>
       <c r="H13">
-        <v>1.01153513116396</v>
+        <v>1.05756764818949</v>
       </c>
       <c r="I13">
-        <v>0.9442257582167499</v>
+        <v>0.9333657711346217</v>
       </c>
       <c r="J13">
-        <v>1.327823093911721</v>
+        <v>0.9776567957872696</v>
       </c>
       <c r="K13">
-        <v>1.132955700809851</v>
+        <v>0.9650804877325255</v>
       </c>
       <c r="L13">
-        <v>0.865996766667798</v>
+        <v>0.9837413446375788</v>
       </c>
       <c r="M13">
-        <v>1.09690993028976</v>
+        <v>1.018343851447047</v>
       </c>
       <c r="N13">
-        <v>1.09690993028976</v>
+        <v>1.018343851447047</v>
       </c>
       <c r="O13">
-        <v>1.068451663914493</v>
+        <v>1.031418450361194</v>
       </c>
       <c r="P13">
-        <v>1.10892518712979</v>
+        <v>1.00058939687554</v>
       </c>
       <c r="Q13">
-        <v>1.10892518712979</v>
+        <v>1.00058939687554</v>
       </c>
       <c r="R13">
-        <v>1.114932815549806</v>
+        <v>0.9917121695897861</v>
       </c>
       <c r="S13">
-        <v>1.114932815549806</v>
+        <v>0.9917121695897861</v>
       </c>
       <c r="T13">
-        <v>1.061417431653399</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>0.9950597342896667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.622185889961739</v>
+        <v>1.826844300000002</v>
       </c>
       <c r="D14">
-        <v>2.18679862176494</v>
+        <v>0.1423060100000003</v>
       </c>
       <c r="E14">
-        <v>0.8563273687250841</v>
+        <v>0.1423060100000003</v>
       </c>
       <c r="F14">
-        <v>0.622185889961739</v>
+        <v>0.4216041200000005</v>
       </c>
       <c r="G14">
-        <v>1.077458620113567</v>
+        <v>0.4216041200000005</v>
       </c>
       <c r="H14">
-        <v>1.333981246539724</v>
+        <v>0.4732866499999994</v>
       </c>
       <c r="I14">
-        <v>0.7810073495717181</v>
+        <v>1.602552399999997</v>
       </c>
       <c r="J14">
-        <v>2.18679862176494</v>
+        <v>1.340359300000002</v>
       </c>
       <c r="K14">
-        <v>0.622185889961739</v>
+        <v>0.4216041200000005</v>
       </c>
       <c r="L14">
-        <v>0.8563273687250841</v>
+        <v>1.826844300000002</v>
       </c>
       <c r="M14">
-        <v>1.521562995245012</v>
+        <v>0.9845751550000011</v>
       </c>
       <c r="N14">
-        <v>1.521562995245012</v>
+        <v>0.9845751550000011</v>
       </c>
       <c r="O14">
-        <v>1.459035745676583</v>
+        <v>0.8141456533333339</v>
       </c>
       <c r="P14">
-        <v>1.221770626817254</v>
+        <v>0.7969181433333343</v>
       </c>
       <c r="Q14">
-        <v>1.221770626817254</v>
+        <v>0.7969181433333343</v>
       </c>
       <c r="R14">
-        <v>1.071874442603375</v>
+        <v>0.7030896375000009</v>
       </c>
       <c r="S14">
-        <v>1.071874442603375</v>
+        <v>0.7030896375000009</v>
       </c>
       <c r="T14">
-        <v>1.142959849446129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>0.9678254633333335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9043021779941286</v>
+        <v>0.42160412</v>
       </c>
       <c r="D15">
-        <v>0.6738976979639911</v>
+        <v>0.023300756</v>
       </c>
       <c r="E15">
-        <v>1.022670578337719</v>
+        <v>0.023300756</v>
       </c>
       <c r="F15">
-        <v>0.9043021779941286</v>
+        <v>3.4428622</v>
       </c>
       <c r="G15">
-        <v>0.658324503583533</v>
+        <v>3.4428622</v>
       </c>
       <c r="H15">
-        <v>1.14632668909471</v>
+        <v>0.39134565</v>
       </c>
       <c r="I15">
-        <v>0.9921492804894084</v>
+        <v>0.21380688</v>
       </c>
       <c r="J15">
-        <v>0.6738976979639911</v>
+        <v>1.134</v>
       </c>
       <c r="K15">
-        <v>0.9043021779941286</v>
+        <v>3.4428622</v>
       </c>
       <c r="L15">
-        <v>1.022670578337719</v>
+        <v>0.42160412</v>
       </c>
       <c r="M15">
-        <v>0.848284138150855</v>
+        <v>0.222452438</v>
       </c>
       <c r="N15">
-        <v>0.848284138150855</v>
+        <v>0.222452438</v>
       </c>
       <c r="O15">
-        <v>0.94763165513214</v>
+        <v>0.2787501753333333</v>
       </c>
       <c r="P15">
-        <v>0.8669568180986129</v>
+        <v>1.295922358666667</v>
       </c>
       <c r="Q15">
-        <v>0.8669568180986129</v>
+        <v>1.295922358666667</v>
       </c>
       <c r="R15">
-        <v>0.8762931580724919</v>
+        <v>1.832657319</v>
       </c>
       <c r="S15">
-        <v>0.8762931580724919</v>
+        <v>1.832657319</v>
       </c>
       <c r="T15">
-        <v>0.8996118212439149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9378199343333332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9959755310722964</v>
+        <v>1.6025524</v>
       </c>
       <c r="D16">
-        <v>1.000984810210329</v>
+        <v>0.0017993233</v>
       </c>
       <c r="E16">
-        <v>1.001835344321015</v>
+        <v>0.0017993233</v>
       </c>
       <c r="F16">
-        <v>0.9959755310722964</v>
+        <v>0.21380688</v>
       </c>
       <c r="G16">
-        <v>1.003584956657818</v>
+        <v>0.21380688</v>
       </c>
       <c r="H16">
-        <v>0.9999931634434812</v>
+        <v>0.029885257</v>
       </c>
       <c r="I16">
-        <v>0.9999169240891352</v>
+        <v>5.1660044</v>
       </c>
       <c r="J16">
-        <v>1.000984810210329</v>
+        <v>1.1262586</v>
       </c>
       <c r="K16">
-        <v>0.9959755310722964</v>
+        <v>0.21380688</v>
       </c>
       <c r="L16">
-        <v>1.001835344321015</v>
+        <v>1.6025524</v>
       </c>
       <c r="M16">
-        <v>1.001410077265672</v>
+        <v>0.8021758616499999</v>
       </c>
       <c r="N16">
-        <v>1.001410077265672</v>
+        <v>0.8021758616499999</v>
       </c>
       <c r="O16">
-        <v>1.000937772658275</v>
+        <v>0.5447456600999999</v>
       </c>
       <c r="P16">
-        <v>0.9995985618678801</v>
+        <v>0.6060528677666666</v>
       </c>
       <c r="Q16">
-        <v>0.9995985618678801</v>
+        <v>0.6060528677666666</v>
       </c>
       <c r="R16">
-        <v>0.9986928041689842</v>
+        <v>0.5079913708249999</v>
       </c>
       <c r="S16">
-        <v>0.9986928041689842</v>
+        <v>0.5079913708249999</v>
       </c>
       <c r="T16">
-        <v>1.000381788299012</v>
+        <v>1.35671781005</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.004659365472778</v>
+        <v>0.8840938</v>
       </c>
       <c r="D17">
-        <v>0.9969962218325652</v>
+        <v>0.52895276</v>
       </c>
       <c r="E17">
-        <v>0.9989655447287403</v>
+        <v>0.52895276</v>
       </c>
       <c r="F17">
-        <v>1.004659365472778</v>
+        <v>1.7351752</v>
       </c>
       <c r="G17">
-        <v>0.9950526887313752</v>
+        <v>1.7351752</v>
       </c>
       <c r="H17">
-        <v>0.9992120032498443</v>
+        <v>0.88393652</v>
       </c>
       <c r="I17">
-        <v>1.000842086591448</v>
+        <v>0.33022503</v>
       </c>
       <c r="J17">
-        <v>0.9969962218325652</v>
+        <v>1.0492738</v>
       </c>
       <c r="K17">
-        <v>1.004659365472778</v>
+        <v>1.7351752</v>
       </c>
       <c r="L17">
-        <v>0.9989655447287403</v>
+        <v>0.8840938</v>
       </c>
       <c r="M17">
-        <v>0.9979808832806527</v>
+        <v>0.7065232800000001</v>
       </c>
       <c r="N17">
-        <v>0.9979808832806527</v>
+        <v>0.7065232800000001</v>
       </c>
       <c r="O17">
-        <v>0.9983912566037166</v>
+        <v>0.7656610266666668</v>
       </c>
       <c r="P17">
-        <v>1.000207044011361</v>
+        <v>1.049407253333333</v>
       </c>
       <c r="Q17">
-        <v>1.000207044011361</v>
+        <v>1.049407253333333</v>
       </c>
       <c r="R17">
-        <v>1.001320124376715</v>
+        <v>1.22084924</v>
       </c>
       <c r="S17">
-        <v>1.001320124376715</v>
+        <v>1.22084924</v>
       </c>
       <c r="T17">
-        <v>0.9992879851011253</v>
+        <v>0.9019428516666667</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9925112833844686</v>
+        <v>1.051578678356165</v>
       </c>
       <c r="D18">
-        <v>0.9952514822828413</v>
+        <v>0.4091111008301371</v>
       </c>
       <c r="E18">
-        <v>1.005441383676957</v>
+        <v>0.4091111008301371</v>
       </c>
       <c r="F18">
-        <v>0.9925112833844686</v>
+        <v>1.172748350684931</v>
       </c>
       <c r="G18">
-        <v>1.01230760589301</v>
+        <v>1.172748350684931</v>
       </c>
       <c r="H18">
-        <v>0.9978402876979723</v>
+        <v>0.8582965761643833</v>
       </c>
       <c r="I18">
-        <v>1.000159430137175</v>
+        <v>1.065914383287671</v>
       </c>
       <c r="J18">
-        <v>0.9952514822828413</v>
+        <v>1.078372487671233</v>
       </c>
       <c r="K18">
-        <v>0.9925112833844686</v>
+        <v>1.172748350684931</v>
       </c>
       <c r="L18">
-        <v>1.005441383676957</v>
+        <v>1.051578678356165</v>
       </c>
       <c r="M18">
-        <v>1.000346432979899</v>
+        <v>0.730344889593151</v>
       </c>
       <c r="N18">
-        <v>1.000346432979899</v>
+        <v>0.730344889593151</v>
       </c>
       <c r="O18">
-        <v>0.999511051219257</v>
+        <v>0.7729954517835619</v>
       </c>
       <c r="P18">
-        <v>0.9977347164480892</v>
+        <v>0.8778127099570779</v>
       </c>
       <c r="Q18">
-        <v>0.9977347164480891</v>
+        <v>0.8778127099570779</v>
       </c>
       <c r="R18">
-        <v>0.996428858182184</v>
+        <v>0.9515466201390412</v>
       </c>
       <c r="S18">
-        <v>0.996428858182184</v>
+        <v>0.9515466201390412</v>
       </c>
       <c r="T18">
-        <v>1.000585245512071</v>
+        <v>0.9393369294990869</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9629418305346484</v>
+        <v>1.171402108947368</v>
       </c>
       <c r="D19">
-        <v>0.9895031535435318</v>
+        <v>1.164093649394737</v>
       </c>
       <c r="E19">
-        <v>1.018282932733074</v>
+        <v>1.164093649394737</v>
       </c>
       <c r="F19">
-        <v>0.9629418305346484</v>
+        <v>0.7414934505263158</v>
       </c>
       <c r="G19">
-        <v>1.04257592811101</v>
+        <v>0.7414934505263158</v>
       </c>
       <c r="H19">
-        <v>0.9970597268940469</v>
+        <v>0.7807699474210525</v>
       </c>
       <c r="I19">
-        <v>1.000261825133806</v>
+        <v>1.912085023157895</v>
       </c>
       <c r="J19">
-        <v>0.9895031535435318</v>
+        <v>1.014608282105263</v>
       </c>
       <c r="K19">
-        <v>0.9629418305346484</v>
+        <v>0.7414934505263158</v>
       </c>
       <c r="L19">
-        <v>1.018282932733074</v>
+        <v>1.171402108947368</v>
       </c>
       <c r="M19">
-        <v>1.003893043138303</v>
+        <v>1.167747879171053</v>
       </c>
       <c r="N19">
-        <v>1.003893043138303</v>
+        <v>1.167747879171053</v>
       </c>
       <c r="O19">
-        <v>1.001615271056884</v>
+        <v>1.038755235254386</v>
       </c>
       <c r="P19">
-        <v>0.9902426389370848</v>
+        <v>1.025663069622807</v>
       </c>
       <c r="Q19">
-        <v>0.9902426389370848</v>
+        <v>1.025663069622807</v>
       </c>
       <c r="R19">
-        <v>0.9834174368364756</v>
+        <v>0.9546206648486844</v>
       </c>
       <c r="S19">
-        <v>0.9834174368364756</v>
+        <v>0.9546206648486844</v>
       </c>
       <c r="T19">
-        <v>1.001770899491686</v>
+        <v>1.130742076925439</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.080195272105263</v>
+      </c>
+      <c r="D20">
+        <v>0.07967007357894738</v>
+      </c>
+      <c r="E20">
+        <v>0.07967007357894738</v>
+      </c>
+      <c r="F20">
+        <v>1.835661598421052</v>
+      </c>
+      <c r="G20">
+        <v>1.835661598421052</v>
+      </c>
+      <c r="H20">
+        <v>0.4527248089473684</v>
+      </c>
+      <c r="I20">
+        <v>0.8672365826315787</v>
+      </c>
+      <c r="J20">
+        <v>1.265984031578947</v>
+      </c>
+      <c r="K20">
+        <v>1.835661598421052</v>
+      </c>
+      <c r="L20">
+        <v>1.080195272105263</v>
+      </c>
+      <c r="M20">
+        <v>0.5799326728421054</v>
+      </c>
+      <c r="N20">
+        <v>0.5799326728421054</v>
+      </c>
+      <c r="O20">
+        <v>0.5375300515438597</v>
+      </c>
+      <c r="P20">
+        <v>0.998508981368421</v>
+      </c>
+      <c r="Q20">
+        <v>0.998508981368421</v>
+      </c>
+      <c r="R20">
+        <v>1.207797135631579</v>
+      </c>
+      <c r="S20">
+        <v>1.207797135631579</v>
+      </c>
+      <c r="T20">
+        <v>0.9302453945438597</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.8563273687250841</v>
+      </c>
+      <c r="D21">
+        <v>2.18679862176494</v>
+      </c>
+      <c r="E21">
+        <v>2.18679862176494</v>
+      </c>
+      <c r="F21">
+        <v>0.6221858899617387</v>
+      </c>
+      <c r="G21">
+        <v>0.6221858899617387</v>
+      </c>
+      <c r="H21">
+        <v>1.333981246539724</v>
+      </c>
+      <c r="I21">
+        <v>1.077458620113567</v>
+      </c>
+      <c r="J21">
+        <v>0.781007349571718</v>
+      </c>
+      <c r="K21">
+        <v>0.6221858899617387</v>
+      </c>
+      <c r="L21">
+        <v>0.8563273687250841</v>
+      </c>
+      <c r="M21">
+        <v>1.521562995245012</v>
+      </c>
+      <c r="N21">
+        <v>1.521562995245012</v>
+      </c>
+      <c r="O21">
+        <v>1.459035745676583</v>
+      </c>
+      <c r="P21">
+        <v>1.221770626817254</v>
+      </c>
+      <c r="Q21">
+        <v>1.221770626817254</v>
+      </c>
+      <c r="R21">
+        <v>1.071874442603375</v>
+      </c>
+      <c r="S21">
+        <v>1.071874442603375</v>
+      </c>
+      <c r="T21">
+        <v>1.142959849446129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.022670578337719</v>
+      </c>
+      <c r="D22">
+        <v>0.6738976979639911</v>
+      </c>
+      <c r="E22">
+        <v>0.6738976979639911</v>
+      </c>
+      <c r="F22">
+        <v>0.9043021779941286</v>
+      </c>
+      <c r="G22">
+        <v>0.9043021779941286</v>
+      </c>
+      <c r="H22">
+        <v>1.14632668909471</v>
+      </c>
+      <c r="I22">
+        <v>0.658324503583533</v>
+      </c>
+      <c r="J22">
+        <v>0.9921492804894084</v>
+      </c>
+      <c r="K22">
+        <v>0.9043021779941286</v>
+      </c>
+      <c r="L22">
+        <v>1.022670578337719</v>
+      </c>
+      <c r="M22">
+        <v>0.8482841381508548</v>
+      </c>
+      <c r="N22">
+        <v>0.8482841381508548</v>
+      </c>
+      <c r="O22">
+        <v>0.94763165513214</v>
+      </c>
+      <c r="P22">
+        <v>0.8669568180986128</v>
+      </c>
+      <c r="Q22">
+        <v>0.8669568180986128</v>
+      </c>
+      <c r="R22">
+        <v>0.8762931580724918</v>
+      </c>
+      <c r="S22">
+        <v>0.8762931580724918</v>
+      </c>
+      <c r="T22">
+        <v>0.8996118212439149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.036560652190417</v>
+      </c>
+      <c r="D23">
+        <v>0.9627291481855711</v>
+      </c>
+      <c r="E23">
+        <v>0.9627291481855711</v>
+      </c>
+      <c r="F23">
+        <v>0.842034489381037</v>
+      </c>
+      <c r="G23">
+        <v>0.842034489381037</v>
+      </c>
+      <c r="H23">
+        <v>1.133592152021125</v>
+      </c>
+      <c r="I23">
+        <v>0.7548606782301578</v>
+      </c>
+      <c r="J23">
+        <v>0.9810804220031685</v>
+      </c>
+      <c r="K23">
+        <v>0.842034489381037</v>
+      </c>
+      <c r="L23">
+        <v>1.036560652190417</v>
+      </c>
+      <c r="M23">
+        <v>0.9996449001879942</v>
+      </c>
+      <c r="N23">
+        <v>0.9996449001879942</v>
+      </c>
+      <c r="O23">
+        <v>1.044293984132371</v>
+      </c>
+      <c r="P23">
+        <v>0.9471080965856752</v>
+      </c>
+      <c r="Q23">
+        <v>0.9471080965856752</v>
+      </c>
+      <c r="R23">
+        <v>0.9208396947845157</v>
+      </c>
+      <c r="S23">
+        <v>0.9208396947845157</v>
+      </c>
+      <c r="T23">
+        <v>0.9518095903352464</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.865996766667798</v>
+      </c>
+      <c r="D24">
+        <v>1.327823093911721</v>
+      </c>
+      <c r="E24">
+        <v>1.327823093911721</v>
+      </c>
+      <c r="F24">
+        <v>1.132955700809852</v>
+      </c>
+      <c r="G24">
+        <v>1.132955700809852</v>
+      </c>
+      <c r="H24">
+        <v>1.01153513116396</v>
+      </c>
+      <c r="I24">
+        <v>1.085968139150315</v>
+      </c>
+      <c r="J24">
+        <v>0.9442257582167499</v>
+      </c>
+      <c r="K24">
+        <v>1.132955700809852</v>
+      </c>
+      <c r="L24">
+        <v>0.865996766667798</v>
+      </c>
+      <c r="M24">
+        <v>1.09690993028976</v>
+      </c>
+      <c r="N24">
+        <v>1.09690993028976</v>
+      </c>
+      <c r="O24">
+        <v>1.068451663914493</v>
+      </c>
+      <c r="P24">
+        <v>1.10892518712979</v>
+      </c>
+      <c r="Q24">
+        <v>1.10892518712979</v>
+      </c>
+      <c r="R24">
+        <v>1.114932815549806</v>
+      </c>
+      <c r="S24">
+        <v>1.114932815549806</v>
+      </c>
+      <c r="T24">
+        <v>1.061417431653399</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.8003365931818548</v>
+      </c>
+      <c r="D25">
+        <v>0.1309991022971287</v>
+      </c>
+      <c r="E25">
+        <v>0.1309991022971287</v>
+      </c>
+      <c r="F25">
+        <v>2.078924960322394</v>
+      </c>
+      <c r="G25">
+        <v>2.078924960322394</v>
+      </c>
+      <c r="H25">
+        <v>0.6024479572568678</v>
+      </c>
+      <c r="I25">
+        <v>0.6118670204080512</v>
+      </c>
+      <c r="J25">
+        <v>1.188447512391932</v>
+      </c>
+      <c r="K25">
+        <v>2.078924960322394</v>
+      </c>
+      <c r="L25">
+        <v>0.8003365931818548</v>
+      </c>
+      <c r="M25">
+        <v>0.4656678477394917</v>
+      </c>
+      <c r="N25">
+        <v>0.4656678477394917</v>
+      </c>
+      <c r="O25">
+        <v>0.5112612175786171</v>
+      </c>
+      <c r="P25">
+        <v>1.003420218600459</v>
+      </c>
+      <c r="Q25">
+        <v>1.003420218600459</v>
+      </c>
+      <c r="R25">
+        <v>1.272296404030943</v>
+      </c>
+      <c r="S25">
+        <v>1.272296404030943</v>
+      </c>
+      <c r="T25">
+        <v>0.9021705243097046</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.272094697685036</v>
+      </c>
+      <c r="D26">
+        <v>0.7272582044895931</v>
+      </c>
+      <c r="E26">
+        <v>0.7272582044895931</v>
+      </c>
+      <c r="F26">
+        <v>0.5477031772756894</v>
+      </c>
+      <c r="G26">
+        <v>0.5477031772756894</v>
+      </c>
+      <c r="H26">
+        <v>0.9488345955961985</v>
+      </c>
+      <c r="I26">
+        <v>1.385167796548495</v>
+      </c>
+      <c r="J26">
+        <v>1.05403066922133</v>
+      </c>
+      <c r="K26">
+        <v>0.5477031772756894</v>
+      </c>
+      <c r="L26">
+        <v>1.272094697685036</v>
+      </c>
+      <c r="M26">
+        <v>0.9996764510873148</v>
+      </c>
+      <c r="N26">
+        <v>0.9996764510873148</v>
+      </c>
+      <c r="O26">
+        <v>0.9827291659236094</v>
+      </c>
+      <c r="P26">
+        <v>0.8490186931501064</v>
+      </c>
+      <c r="Q26">
+        <v>0.8490186931501063</v>
+      </c>
+      <c r="R26">
+        <v>0.7736898141815021</v>
+      </c>
+      <c r="S26">
+        <v>0.7736898141815021</v>
+      </c>
+      <c r="T26">
+        <v>0.9891815234693905</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.000182334343681</v>
+      </c>
+      <c r="D27">
+        <v>1.258013279024626</v>
+      </c>
+      <c r="E27">
+        <v>1.258013279024626</v>
+      </c>
+      <c r="F27">
+        <v>1.132450369830342</v>
+      </c>
+      <c r="G27">
+        <v>1.132450369830342</v>
+      </c>
+      <c r="H27">
+        <v>0.8920946816527768</v>
+      </c>
+      <c r="I27">
+        <v>0.9434529955952303</v>
+      </c>
+      <c r="J27">
+        <v>1.038400009687474</v>
+      </c>
+      <c r="K27">
+        <v>1.132450369830342</v>
+      </c>
+      <c r="L27">
+        <v>1.000182334343681</v>
+      </c>
+      <c r="M27">
+        <v>1.129097806684154</v>
+      </c>
+      <c r="N27">
+        <v>1.129097806684154</v>
+      </c>
+      <c r="O27">
+        <v>1.050096765007028</v>
+      </c>
+      <c r="P27">
+        <v>1.130215327732883</v>
+      </c>
+      <c r="Q27">
+        <v>1.130215327732883</v>
+      </c>
+      <c r="R27">
+        <v>1.130774088257248</v>
+      </c>
+      <c r="S27">
+        <v>1.130774088257248</v>
+      </c>
+      <c r="T27">
+        <v>1.044098945022355</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.016447547368965</v>
+      </c>
+      <c r="D28">
+        <v>0.8311611950705382</v>
+      </c>
+      <c r="E28">
+        <v>0.8311611950705382</v>
+      </c>
+      <c r="F28">
+        <v>1.109535562814175</v>
+      </c>
+      <c r="G28">
+        <v>1.109535562814175</v>
+      </c>
+      <c r="H28">
+        <v>0.961220190238784</v>
+      </c>
+      <c r="I28">
+        <v>1.021255298589232</v>
+      </c>
+      <c r="J28">
+        <v>1.007322563810501</v>
+      </c>
+      <c r="K28">
+        <v>1.109535562814175</v>
+      </c>
+      <c r="L28">
+        <v>1.016447547368965</v>
+      </c>
+      <c r="M28">
+        <v>0.9238043712197516</v>
+      </c>
+      <c r="N28">
+        <v>0.9238043712197516</v>
+      </c>
+      <c r="O28">
+        <v>0.9362763108927624</v>
+      </c>
+      <c r="P28">
+        <v>0.9857147684178926</v>
+      </c>
+      <c r="Q28">
+        <v>0.9857147684178926</v>
+      </c>
+      <c r="R28">
+        <v>1.016669967016963</v>
+      </c>
+      <c r="S28">
+        <v>1.016669967016963</v>
+      </c>
+      <c r="T28">
+        <v>0.9911570596486992</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.813944105371154</v>
+      </c>
+      <c r="D29">
+        <v>1.130960424358047</v>
+      </c>
+      <c r="E29">
+        <v>1.130960424358047</v>
+      </c>
+      <c r="F29">
+        <v>1.457998056494564</v>
+      </c>
+      <c r="G29">
+        <v>1.457998056494564</v>
+      </c>
+      <c r="H29">
+        <v>1.01266033224321</v>
+      </c>
+      <c r="I29">
+        <v>0.8480802737191522</v>
+      </c>
+      <c r="J29">
+        <v>0.9258648566378159</v>
+      </c>
+      <c r="K29">
+        <v>1.457998056494564</v>
+      </c>
+      <c r="L29">
+        <v>0.813944105371154</v>
+      </c>
+      <c r="M29">
+        <v>0.9724522648646006</v>
+      </c>
+      <c r="N29">
+        <v>0.9724522648646006</v>
+      </c>
+      <c r="O29">
+        <v>0.9858549539908038</v>
+      </c>
+      <c r="P29">
+        <v>1.134300862074588</v>
+      </c>
+      <c r="Q29">
+        <v>1.134300862074588</v>
+      </c>
+      <c r="R29">
+        <v>1.215225160679582</v>
+      </c>
+      <c r="S29">
+        <v>1.215225160679582</v>
+      </c>
+      <c r="T29">
+        <v>1.03158467480399</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha3F-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha3F-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.096960026969079</v>
+        <v>1.078772376803321</v>
       </c>
       <c r="D4">
-        <v>0.8240726861844295</v>
+        <v>0.8854976134899082</v>
       </c>
       <c r="E4">
-        <v>0.8240726861844295</v>
+        <v>0.8854976134899082</v>
       </c>
       <c r="F4">
-        <v>0.9368140319446402</v>
+        <v>0.948155522840432</v>
       </c>
       <c r="G4">
-        <v>0.9368140319446402</v>
+        <v>0.948155522840432</v>
       </c>
       <c r="H4">
-        <v>0.8514021050897128</v>
+        <v>0.9343258336082592</v>
       </c>
       <c r="I4">
-        <v>1.413750753213754</v>
+        <v>1.102367530410008</v>
       </c>
       <c r="J4">
-        <v>1.046768101011141</v>
+        <v>1.03707076943516</v>
       </c>
       <c r="K4">
-        <v>0.9368140319446402</v>
+        <v>0.948155522840432</v>
       </c>
       <c r="L4">
-        <v>1.096960026969079</v>
+        <v>1.078772376803321</v>
       </c>
       <c r="M4">
-        <v>0.9605163565767543</v>
+        <v>0.9821349951466145</v>
       </c>
       <c r="N4">
-        <v>0.9605163565767543</v>
+        <v>0.9821349951466145</v>
       </c>
       <c r="O4">
-        <v>0.9241449394144071</v>
+        <v>0.9661986079671627</v>
       </c>
       <c r="P4">
-        <v>0.952615581699383</v>
+        <v>0.970808504377887</v>
       </c>
       <c r="Q4">
-        <v>0.952615581699383</v>
+        <v>0.970808504377887</v>
       </c>
       <c r="R4">
-        <v>0.9486651942606973</v>
+        <v>0.9651452589935233</v>
       </c>
       <c r="S4">
-        <v>0.9486651942606973</v>
+        <v>0.9651452589935233</v>
       </c>
       <c r="T4">
-        <v>1.028294617402126</v>
+        <v>0.9976982744311815</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.09437070561239</v>
+        <v>1.040135132997802</v>
       </c>
       <c r="D5">
-        <v>0.8424064575485577</v>
+        <v>0.07633128531603488</v>
       </c>
       <c r="E5">
-        <v>0.8424064575485577</v>
+        <v>0.07633128531603488</v>
       </c>
       <c r="F5">
-        <v>0.9599654796469758</v>
+        <v>1.904517580898137</v>
       </c>
       <c r="G5">
-        <v>0.9599654796469758</v>
+        <v>1.904517580898137</v>
       </c>
       <c r="H5">
-        <v>0.9132495316325658</v>
+        <v>0.4524641603787041</v>
       </c>
       <c r="I5">
-        <v>1.106788984768008</v>
+        <v>0.8278787203872623</v>
       </c>
       <c r="J5">
-        <v>1.049022785259366</v>
+        <v>1.263286956469013</v>
       </c>
       <c r="K5">
-        <v>0.9599654796469758</v>
+        <v>1.904517580898137</v>
       </c>
       <c r="L5">
-        <v>1.09437070561239</v>
+        <v>1.040135132997802</v>
       </c>
       <c r="M5">
-        <v>0.9683885815804737</v>
+        <v>0.5582332091569184</v>
       </c>
       <c r="N5">
-        <v>0.9683885815804737</v>
+        <v>0.5582332091569184</v>
       </c>
       <c r="O5">
-        <v>0.9500088982645044</v>
+        <v>0.5229768595641803</v>
       </c>
       <c r="P5">
-        <v>0.9655808809359744</v>
+        <v>1.006994666403991</v>
       </c>
       <c r="Q5">
-        <v>0.9655808809359744</v>
+        <v>1.006994666403991</v>
       </c>
       <c r="R5">
-        <v>0.9641770306137247</v>
+        <v>1.231375395027528</v>
       </c>
       <c r="S5">
-        <v>0.9641770306137247</v>
+        <v>1.231375395027528</v>
       </c>
       <c r="T5">
-        <v>0.9943006574113106</v>
+        <v>0.9274356394078255</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.450719208096858</v>
+        <v>1.096960026969079</v>
       </c>
       <c r="D6">
-        <v>0.5138920080822273</v>
+        <v>0.8240726861844295</v>
       </c>
       <c r="E6">
-        <v>0.5138920080822273</v>
+        <v>0.8240726861844295</v>
       </c>
       <c r="F6">
-        <v>0.6895545908776354</v>
+        <v>0.9368140319446402</v>
       </c>
       <c r="G6">
-        <v>0.6895545908776354</v>
+        <v>0.9368140319446402</v>
       </c>
       <c r="H6">
-        <v>0.7035867627999202</v>
+        <v>0.8514021050897128</v>
       </c>
       <c r="I6">
-        <v>1.349746703891961</v>
+        <v>1.413750753213754</v>
       </c>
       <c r="J6">
-        <v>1.188550465829092</v>
+        <v>1.046768101011141</v>
       </c>
       <c r="K6">
-        <v>0.6895545908776354</v>
+        <v>0.9368140319446402</v>
       </c>
       <c r="L6">
-        <v>1.450719208096858</v>
+        <v>1.096960026969079</v>
       </c>
       <c r="M6">
-        <v>0.9823056080895426</v>
+        <v>0.9605163565767543</v>
       </c>
       <c r="N6">
-        <v>0.9823056080895426</v>
+        <v>0.9605163565767543</v>
       </c>
       <c r="O6">
-        <v>0.8893993263263352</v>
+        <v>0.9241449394144071</v>
       </c>
       <c r="P6">
-        <v>0.8847219356855734</v>
+        <v>0.952615581699383</v>
       </c>
       <c r="Q6">
-        <v>0.8847219356855734</v>
+        <v>0.952615581699383</v>
       </c>
       <c r="R6">
-        <v>0.835930099483589</v>
+        <v>0.9486651942606973</v>
       </c>
       <c r="S6">
-        <v>0.835930099483589</v>
+        <v>0.9486651942606973</v>
       </c>
       <c r="T6">
-        <v>0.9826749565962821</v>
+        <v>1.028294617402126</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.001641761814095</v>
+        <v>1.09437070561239</v>
       </c>
       <c r="D7">
-        <v>0.9704010119494194</v>
+        <v>0.8424064575485577</v>
       </c>
       <c r="E7">
-        <v>0.9704010119494194</v>
+        <v>0.8424064575485577</v>
       </c>
       <c r="F7">
-        <v>1.012877854087792</v>
+        <v>0.9599654796469758</v>
       </c>
       <c r="G7">
-        <v>1.012877854087792</v>
+        <v>0.9599654796469758</v>
       </c>
       <c r="H7">
-        <v>0.9912783997862464</v>
+        <v>0.9132495316325658</v>
       </c>
       <c r="I7">
-        <v>1.001329798795259</v>
+        <v>1.106788984768008</v>
       </c>
       <c r="J7">
-        <v>1.004621921589987</v>
+        <v>1.049022785259366</v>
       </c>
       <c r="K7">
-        <v>1.012877854087792</v>
+        <v>0.9599654796469758</v>
       </c>
       <c r="L7">
-        <v>1.001641761814095</v>
+        <v>1.09437070561239</v>
       </c>
       <c r="M7">
-        <v>0.9860213868817573</v>
+        <v>0.9683885815804737</v>
       </c>
       <c r="N7">
-        <v>0.9860213868817573</v>
+        <v>0.9683885815804737</v>
       </c>
       <c r="O7">
-        <v>0.987773724516587</v>
+        <v>0.9500088982645044</v>
       </c>
       <c r="P7">
-        <v>0.9949735426171021</v>
+        <v>0.9655808809359744</v>
       </c>
       <c r="Q7">
-        <v>0.9949735426171021</v>
+        <v>0.9655808809359744</v>
       </c>
       <c r="R7">
-        <v>0.9994496204847745</v>
+        <v>0.9641770306137247</v>
       </c>
       <c r="S7">
-        <v>0.9994496204847745</v>
+        <v>0.9641770306137247</v>
       </c>
       <c r="T7">
-        <v>0.9970251246704663</v>
+        <v>0.9943006574113106</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.998965544728741</v>
+        <v>1.450719208096858</v>
       </c>
       <c r="D8">
-        <v>0.9969962218325645</v>
+        <v>0.5138920080822273</v>
       </c>
       <c r="E8">
-        <v>0.9969962218325645</v>
+        <v>0.5138920080822273</v>
       </c>
       <c r="F8">
-        <v>1.004659365472778</v>
+        <v>0.6895545908776354</v>
       </c>
       <c r="G8">
-        <v>1.004659365472778</v>
+        <v>0.6895545908776354</v>
       </c>
       <c r="H8">
-        <v>0.9992120032498443</v>
+        <v>0.7035867627999202</v>
       </c>
       <c r="I8">
-        <v>0.9950526887313751</v>
+        <v>1.349746703891961</v>
       </c>
       <c r="J8">
-        <v>1.000842086591448</v>
+        <v>1.188550465829092</v>
       </c>
       <c r="K8">
-        <v>1.004659365472778</v>
+        <v>0.6895545908776354</v>
       </c>
       <c r="L8">
-        <v>0.998965544728741</v>
+        <v>1.450719208096858</v>
       </c>
       <c r="M8">
-        <v>0.9979808832806527</v>
+        <v>0.9823056080895426</v>
       </c>
       <c r="N8">
-        <v>0.9979808832806527</v>
+        <v>0.9823056080895426</v>
       </c>
       <c r="O8">
-        <v>0.9983912566037166</v>
+        <v>0.8893993263263352</v>
       </c>
       <c r="P8">
-        <v>1.000207044011361</v>
+        <v>0.8847219356855734</v>
       </c>
       <c r="Q8">
-        <v>1.000207044011361</v>
+        <v>0.8847219356855734</v>
       </c>
       <c r="R8">
-        <v>1.001320124376715</v>
+        <v>0.835930099483589</v>
       </c>
       <c r="S8">
-        <v>1.001320124376715</v>
+        <v>0.835930099483589</v>
       </c>
       <c r="T8">
-        <v>0.9992879851011253</v>
+        <v>0.9826749565962821</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.005697298906681</v>
+        <v>1.001641761814095</v>
       </c>
       <c r="D9">
-        <v>0.9510763359764055</v>
+        <v>0.9704010119494194</v>
       </c>
       <c r="E9">
-        <v>0.9510763359764055</v>
+        <v>0.9704010119494194</v>
       </c>
       <c r="F9">
-        <v>1.011530759007626</v>
+        <v>1.012877854087792</v>
       </c>
       <c r="G9">
-        <v>1.011530759007626</v>
+        <v>1.012877854087792</v>
       </c>
       <c r="H9">
-        <v>0.9884501226941569</v>
+        <v>0.9912783997862464</v>
       </c>
       <c r="I9">
-        <v>1.006633282410023</v>
+        <v>1.001329798795259</v>
       </c>
       <c r="J9">
-        <v>1.006546964288916</v>
+        <v>1.004621921589987</v>
       </c>
       <c r="K9">
-        <v>1.011530759007626</v>
+        <v>1.012877854087792</v>
       </c>
       <c r="L9">
-        <v>1.005697298906681</v>
+        <v>1.001641761814095</v>
       </c>
       <c r="M9">
-        <v>0.9783868174415435</v>
+        <v>0.9860213868817573</v>
       </c>
       <c r="N9">
-        <v>0.9783868174415435</v>
+        <v>0.9860213868817573</v>
       </c>
       <c r="O9">
-        <v>0.981741252525748</v>
+        <v>0.987773724516587</v>
       </c>
       <c r="P9">
-        <v>0.9894347979635709</v>
+        <v>0.9949735426171021</v>
       </c>
       <c r="Q9">
-        <v>0.9894347979635709</v>
+        <v>0.9949735426171021</v>
       </c>
       <c r="R9">
-        <v>0.9949587882245847</v>
+        <v>0.9994496204847745</v>
       </c>
       <c r="S9">
-        <v>0.9949587882245847</v>
+        <v>0.9994496204847745</v>
       </c>
       <c r="T9">
-        <v>0.9949891272139681</v>
+        <v>0.9970251246704663</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.465388190782621</v>
+        <v>0.998965544728741</v>
       </c>
       <c r="D10">
-        <v>0.4935346502035878</v>
+        <v>0.9969962218325645</v>
       </c>
       <c r="E10">
-        <v>0.4935346502035878</v>
+        <v>0.9969962218325645</v>
       </c>
       <c r="F10">
-        <v>0.6720011694661769</v>
+        <v>1.004659365472778</v>
       </c>
       <c r="G10">
-        <v>0.6720011694661769</v>
+        <v>1.004659365472778</v>
       </c>
       <c r="H10">
-        <v>0.7009525828855278</v>
+        <v>0.9992120032498443</v>
       </c>
       <c r="I10">
-        <v>1.355018899935564</v>
+        <v>0.9950526887313751</v>
       </c>
       <c r="J10">
-        <v>1.192850232394636</v>
+        <v>1.000842086591448</v>
       </c>
       <c r="K10">
-        <v>0.6720011694661769</v>
+        <v>1.004659365472778</v>
       </c>
       <c r="L10">
-        <v>1.465388190782621</v>
+        <v>0.998965544728741</v>
       </c>
       <c r="M10">
-        <v>0.9794614204931041</v>
+        <v>0.9979808832806527</v>
       </c>
       <c r="N10">
-        <v>0.9794614204931041</v>
+        <v>0.9979808832806527</v>
       </c>
       <c r="O10">
-        <v>0.8866251412905787</v>
+        <v>0.9983912566037166</v>
       </c>
       <c r="P10">
-        <v>0.876974670150795</v>
+        <v>1.000207044011361</v>
       </c>
       <c r="Q10">
-        <v>0.876974670150795</v>
+        <v>1.000207044011361</v>
       </c>
       <c r="R10">
-        <v>0.8257312949796405</v>
+        <v>1.001320124376715</v>
       </c>
       <c r="S10">
-        <v>0.8257312949796405</v>
+        <v>1.001320124376715</v>
       </c>
       <c r="T10">
-        <v>0.9799576209446855</v>
+        <v>0.9992879851011253</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.094016030072084</v>
+        <v>1.005697298906681</v>
       </c>
       <c r="D11">
-        <v>0.7992747565692058</v>
+        <v>0.9510763359764055</v>
       </c>
       <c r="E11">
-        <v>0.7992747565692058</v>
+        <v>0.9510763359764055</v>
       </c>
       <c r="F11">
-        <v>0.9499385381643386</v>
+        <v>1.011530759007626</v>
       </c>
       <c r="G11">
-        <v>0.9499385381643386</v>
+        <v>1.011530759007626</v>
       </c>
       <c r="H11">
-        <v>0.8528394512168465</v>
+        <v>0.9884501226941569</v>
       </c>
       <c r="I11">
-        <v>1.390047462245685</v>
+        <v>1.006633282410023</v>
       </c>
       <c r="J11">
-        <v>1.048973964102215</v>
+        <v>1.006546964288916</v>
       </c>
       <c r="K11">
-        <v>0.9499385381643386</v>
+        <v>1.011530759007626</v>
       </c>
       <c r="L11">
-        <v>1.094016030072084</v>
+        <v>1.005697298906681</v>
       </c>
       <c r="M11">
-        <v>0.9466453933206448</v>
+        <v>0.9783868174415435</v>
       </c>
       <c r="N11">
-        <v>0.9466453933206448</v>
+        <v>0.9783868174415435</v>
       </c>
       <c r="O11">
-        <v>0.9153767459527119</v>
+        <v>0.981741252525748</v>
       </c>
       <c r="P11">
-        <v>0.9477431082685427</v>
+        <v>0.9894347979635709</v>
       </c>
       <c r="Q11">
-        <v>0.9477431082685427</v>
+        <v>0.9894347979635709</v>
       </c>
       <c r="R11">
-        <v>0.9482919657424917</v>
+        <v>0.9949587882245847</v>
       </c>
       <c r="S11">
-        <v>0.9482919657424917</v>
+        <v>0.9949587882245847</v>
       </c>
       <c r="T11">
-        <v>1.022515033728396</v>
+        <v>0.9949891272139681</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.126831345326316</v>
+        <v>1.465388190782621</v>
       </c>
       <c r="D12">
-        <v>0.8265524965747364</v>
+        <v>0.4935346502035878</v>
       </c>
       <c r="E12">
-        <v>0.8265524965747364</v>
+        <v>0.4935346502035878</v>
       </c>
       <c r="F12">
-        <v>0.9097870466315791</v>
+        <v>0.6720011694661769</v>
       </c>
       <c r="G12">
-        <v>0.9097870466315791</v>
+        <v>0.6720011694661769</v>
       </c>
       <c r="H12">
-        <v>0.9126334913052635</v>
+        <v>0.7009525828855278</v>
       </c>
       <c r="I12">
-        <v>1.123947568037893</v>
+        <v>1.355018899935564</v>
       </c>
       <c r="J12">
-        <v>1.054566790084211</v>
+        <v>1.192850232394636</v>
       </c>
       <c r="K12">
-        <v>0.9097870466315791</v>
+        <v>0.6720011694661769</v>
       </c>
       <c r="L12">
-        <v>1.126831345326316</v>
+        <v>1.465388190782621</v>
       </c>
       <c r="M12">
-        <v>0.9766919209505261</v>
+        <v>0.9794614204931041</v>
       </c>
       <c r="N12">
-        <v>0.9766919209505261</v>
+        <v>0.9794614204931041</v>
       </c>
       <c r="O12">
-        <v>0.9553391110687719</v>
+        <v>0.8866251412905787</v>
       </c>
       <c r="P12">
-        <v>0.9543902961775438</v>
+        <v>0.876974670150795</v>
       </c>
       <c r="Q12">
-        <v>0.9543902961775439</v>
+        <v>0.876974670150795</v>
       </c>
       <c r="R12">
-        <v>0.9432394837910527</v>
+        <v>0.8257312949796405</v>
       </c>
       <c r="S12">
-        <v>0.9432394837910527</v>
+        <v>0.8257312949796405</v>
       </c>
       <c r="T12">
-        <v>0.9923864563266666</v>
+        <v>0.9799576209446855</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9837413446375788</v>
+        <v>1.094016030072084</v>
       </c>
       <c r="D13">
-        <v>1.052946358256515</v>
+        <v>0.7992747565692058</v>
       </c>
       <c r="E13">
-        <v>1.052946358256515</v>
+        <v>0.7992747565692058</v>
       </c>
       <c r="F13">
-        <v>0.9650804877325255</v>
+        <v>0.9499385381643386</v>
       </c>
       <c r="G13">
-        <v>0.9650804877325255</v>
+        <v>0.9499385381643386</v>
       </c>
       <c r="H13">
-        <v>1.05756764818949</v>
+        <v>0.8528394512168465</v>
       </c>
       <c r="I13">
-        <v>0.9333657711346217</v>
+        <v>1.390047462245685</v>
       </c>
       <c r="J13">
-        <v>0.9776567957872696</v>
+        <v>1.048973964102215</v>
       </c>
       <c r="K13">
-        <v>0.9650804877325255</v>
+        <v>0.9499385381643386</v>
       </c>
       <c r="L13">
-        <v>0.9837413446375788</v>
+        <v>1.094016030072084</v>
       </c>
       <c r="M13">
-        <v>1.018343851447047</v>
+        <v>0.9466453933206448</v>
       </c>
       <c r="N13">
-        <v>1.018343851447047</v>
+        <v>0.9466453933206448</v>
       </c>
       <c r="O13">
-        <v>1.031418450361194</v>
+        <v>0.9153767459527119</v>
       </c>
       <c r="P13">
-        <v>1.00058939687554</v>
+        <v>0.9477431082685427</v>
       </c>
       <c r="Q13">
-        <v>1.00058939687554</v>
+        <v>0.9477431082685427</v>
       </c>
       <c r="R13">
-        <v>0.9917121695897861</v>
+        <v>0.9482919657424917</v>
       </c>
       <c r="S13">
-        <v>0.9917121695897861</v>
+        <v>0.9482919657424917</v>
       </c>
       <c r="T13">
-        <v>0.9950597342896667</v>
+        <v>1.022515033728396</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.826844300000002</v>
+        <v>1.126831345326316</v>
       </c>
       <c r="D14">
-        <v>0.1423060100000003</v>
+        <v>0.8265524965747364</v>
       </c>
       <c r="E14">
-        <v>0.1423060100000003</v>
+        <v>0.8265524965747364</v>
       </c>
       <c r="F14">
-        <v>0.4216041200000005</v>
+        <v>0.9097870466315791</v>
       </c>
       <c r="G14">
-        <v>0.4216041200000005</v>
+        <v>0.9097870466315791</v>
       </c>
       <c r="H14">
-        <v>0.4732866499999994</v>
+        <v>0.9126334913052635</v>
       </c>
       <c r="I14">
-        <v>1.602552399999997</v>
+        <v>1.123947568037893</v>
       </c>
       <c r="J14">
-        <v>1.340359300000002</v>
+        <v>1.054566790084211</v>
       </c>
       <c r="K14">
-        <v>0.4216041200000005</v>
+        <v>0.9097870466315791</v>
       </c>
       <c r="L14">
-        <v>1.826844300000002</v>
+        <v>1.126831345326316</v>
       </c>
       <c r="M14">
-        <v>0.9845751550000011</v>
+        <v>0.9766919209505261</v>
       </c>
       <c r="N14">
-        <v>0.9845751550000011</v>
+        <v>0.9766919209505261</v>
       </c>
       <c r="O14">
-        <v>0.8141456533333339</v>
+        <v>0.9553391110687719</v>
       </c>
       <c r="P14">
-        <v>0.7969181433333343</v>
+        <v>0.9543902961775438</v>
       </c>
       <c r="Q14">
-        <v>0.7969181433333343</v>
+        <v>0.9543902961775439</v>
       </c>
       <c r="R14">
-        <v>0.7030896375000009</v>
+        <v>0.9432394837910527</v>
       </c>
       <c r="S14">
-        <v>0.7030896375000009</v>
+        <v>0.9432394837910527</v>
       </c>
       <c r="T14">
-        <v>0.9678254633333335</v>
+        <v>0.9923864563266666</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.42160412</v>
+        <v>0.9837413446375788</v>
       </c>
       <c r="D15">
-        <v>0.023300756</v>
+        <v>1.052946358256515</v>
       </c>
       <c r="E15">
-        <v>0.023300756</v>
+        <v>1.052946358256515</v>
       </c>
       <c r="F15">
-        <v>3.4428622</v>
+        <v>0.9650804877325255</v>
       </c>
       <c r="G15">
-        <v>3.4428622</v>
+        <v>0.9650804877325255</v>
       </c>
       <c r="H15">
-        <v>0.39134565</v>
+        <v>1.05756764818949</v>
       </c>
       <c r="I15">
-        <v>0.21380688</v>
+        <v>0.9333657711346217</v>
       </c>
       <c r="J15">
-        <v>1.134</v>
+        <v>0.9776567957872696</v>
       </c>
       <c r="K15">
-        <v>3.4428622</v>
+        <v>0.9650804877325255</v>
       </c>
       <c r="L15">
-        <v>0.42160412</v>
+        <v>0.9837413446375788</v>
       </c>
       <c r="M15">
-        <v>0.222452438</v>
+        <v>1.018343851447047</v>
       </c>
       <c r="N15">
-        <v>0.222452438</v>
+        <v>1.018343851447047</v>
       </c>
       <c r="O15">
-        <v>0.2787501753333333</v>
+        <v>1.031418450361194</v>
       </c>
       <c r="P15">
-        <v>1.295922358666667</v>
+        <v>1.00058939687554</v>
       </c>
       <c r="Q15">
-        <v>1.295922358666667</v>
+        <v>1.00058939687554</v>
       </c>
       <c r="R15">
-        <v>1.832657319</v>
+        <v>0.9917121695897861</v>
       </c>
       <c r="S15">
-        <v>1.832657319</v>
+        <v>0.9917121695897861</v>
       </c>
       <c r="T15">
-        <v>0.9378199343333332</v>
+        <v>0.9950597342896667</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.6025524</v>
+        <v>1.826844300000002</v>
       </c>
       <c r="D16">
-        <v>0.0017993233</v>
+        <v>0.1423060100000003</v>
       </c>
       <c r="E16">
-        <v>0.0017993233</v>
+        <v>0.1423060100000003</v>
       </c>
       <c r="F16">
-        <v>0.21380688</v>
+        <v>0.4216041200000005</v>
       </c>
       <c r="G16">
-        <v>0.21380688</v>
+        <v>0.4216041200000005</v>
       </c>
       <c r="H16">
-        <v>0.029885257</v>
+        <v>0.4732866499999994</v>
       </c>
       <c r="I16">
-        <v>5.1660044</v>
+        <v>1.602552399999997</v>
       </c>
       <c r="J16">
-        <v>1.1262586</v>
+        <v>1.340359300000002</v>
       </c>
       <c r="K16">
-        <v>0.21380688</v>
+        <v>0.4216041200000005</v>
       </c>
       <c r="L16">
-        <v>1.6025524</v>
+        <v>1.826844300000002</v>
       </c>
       <c r="M16">
-        <v>0.8021758616499999</v>
+        <v>0.9845751550000011</v>
       </c>
       <c r="N16">
-        <v>0.8021758616499999</v>
+        <v>0.9845751550000011</v>
       </c>
       <c r="O16">
-        <v>0.5447456600999999</v>
+        <v>0.8141456533333339</v>
       </c>
       <c r="P16">
-        <v>0.6060528677666666</v>
+        <v>0.7969181433333343</v>
       </c>
       <c r="Q16">
-        <v>0.6060528677666666</v>
+        <v>0.7969181433333343</v>
       </c>
       <c r="R16">
-        <v>0.5079913708249999</v>
+        <v>0.7030896375000009</v>
       </c>
       <c r="S16">
-        <v>0.5079913708249999</v>
+        <v>0.7030896375000009</v>
       </c>
       <c r="T16">
-        <v>1.35671781005</v>
+        <v>0.9678254633333335</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.8840938</v>
+        <v>0.42160412</v>
       </c>
       <c r="D17">
-        <v>0.52895276</v>
+        <v>0.023300756</v>
       </c>
       <c r="E17">
-        <v>0.52895276</v>
+        <v>0.023300756</v>
       </c>
       <c r="F17">
-        <v>1.7351752</v>
+        <v>3.4428622</v>
       </c>
       <c r="G17">
-        <v>1.7351752</v>
+        <v>3.4428622</v>
       </c>
       <c r="H17">
-        <v>0.88393652</v>
+        <v>0.39134565</v>
       </c>
       <c r="I17">
-        <v>0.33022503</v>
+        <v>0.21380688</v>
       </c>
       <c r="J17">
-        <v>1.0492738</v>
+        <v>1.134</v>
       </c>
       <c r="K17">
-        <v>1.7351752</v>
+        <v>3.4428622</v>
       </c>
       <c r="L17">
-        <v>0.8840938</v>
+        <v>0.42160412</v>
       </c>
       <c r="M17">
-        <v>0.7065232800000001</v>
+        <v>0.222452438</v>
       </c>
       <c r="N17">
-        <v>0.7065232800000001</v>
+        <v>0.222452438</v>
       </c>
       <c r="O17">
-        <v>0.7656610266666668</v>
+        <v>0.2787501753333333</v>
       </c>
       <c r="P17">
-        <v>1.049407253333333</v>
+        <v>1.295922358666667</v>
       </c>
       <c r="Q17">
-        <v>1.049407253333333</v>
+        <v>1.295922358666667</v>
       </c>
       <c r="R17">
-        <v>1.22084924</v>
+        <v>1.832657319</v>
       </c>
       <c r="S17">
-        <v>1.22084924</v>
+        <v>1.832657319</v>
       </c>
       <c r="T17">
-        <v>0.9019428516666667</v>
+        <v>0.9378199343333332</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.051578678356165</v>
+        <v>1.6025524</v>
       </c>
       <c r="D18">
-        <v>0.4091111008301371</v>
+        <v>0.0017993233</v>
       </c>
       <c r="E18">
-        <v>0.4091111008301371</v>
+        <v>0.0017993233</v>
       </c>
       <c r="F18">
-        <v>1.172748350684931</v>
+        <v>0.21380688</v>
       </c>
       <c r="G18">
-        <v>1.172748350684931</v>
+        <v>0.21380688</v>
       </c>
       <c r="H18">
-        <v>0.8582965761643833</v>
+        <v>0.029885257</v>
       </c>
       <c r="I18">
-        <v>1.065914383287671</v>
+        <v>5.1660044</v>
       </c>
       <c r="J18">
-        <v>1.078372487671233</v>
+        <v>1.1262586</v>
       </c>
       <c r="K18">
-        <v>1.172748350684931</v>
+        <v>0.21380688</v>
       </c>
       <c r="L18">
-        <v>1.051578678356165</v>
+        <v>1.6025524</v>
       </c>
       <c r="M18">
-        <v>0.730344889593151</v>
+        <v>0.8021758616499999</v>
       </c>
       <c r="N18">
-        <v>0.730344889593151</v>
+        <v>0.8021758616499999</v>
       </c>
       <c r="O18">
-        <v>0.7729954517835619</v>
+        <v>0.5447456600999999</v>
       </c>
       <c r="P18">
-        <v>0.8778127099570779</v>
+        <v>0.6060528677666666</v>
       </c>
       <c r="Q18">
-        <v>0.8778127099570779</v>
+        <v>0.6060528677666666</v>
       </c>
       <c r="R18">
-        <v>0.9515466201390412</v>
+        <v>0.5079913708249999</v>
       </c>
       <c r="S18">
-        <v>0.9515466201390412</v>
+        <v>0.5079913708249999</v>
       </c>
       <c r="T18">
-        <v>0.9393369294990869</v>
+        <v>1.35671781005</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.171402108947368</v>
+        <v>0.8840938</v>
       </c>
       <c r="D19">
-        <v>1.164093649394737</v>
+        <v>0.52895276</v>
       </c>
       <c r="E19">
-        <v>1.164093649394737</v>
+        <v>0.52895276</v>
       </c>
       <c r="F19">
-        <v>0.7414934505263158</v>
+        <v>1.7351752</v>
       </c>
       <c r="G19">
-        <v>0.7414934505263158</v>
+        <v>1.7351752</v>
       </c>
       <c r="H19">
-        <v>0.7807699474210525</v>
+        <v>0.88393652</v>
       </c>
       <c r="I19">
-        <v>1.912085023157895</v>
+        <v>0.33022503</v>
       </c>
       <c r="J19">
-        <v>1.014608282105263</v>
+        <v>1.0492738</v>
       </c>
       <c r="K19">
-        <v>0.7414934505263158</v>
+        <v>1.7351752</v>
       </c>
       <c r="L19">
-        <v>1.171402108947368</v>
+        <v>0.8840938</v>
       </c>
       <c r="M19">
-        <v>1.167747879171053</v>
+        <v>0.7065232800000001</v>
       </c>
       <c r="N19">
-        <v>1.167747879171053</v>
+        <v>0.7065232800000001</v>
       </c>
       <c r="O19">
-        <v>1.038755235254386</v>
+        <v>0.7656610266666668</v>
       </c>
       <c r="P19">
-        <v>1.025663069622807</v>
+        <v>1.049407253333333</v>
       </c>
       <c r="Q19">
-        <v>1.025663069622807</v>
+        <v>1.049407253333333</v>
       </c>
       <c r="R19">
-        <v>0.9546206648486844</v>
+        <v>1.22084924</v>
       </c>
       <c r="S19">
-        <v>0.9546206648486844</v>
+        <v>1.22084924</v>
       </c>
       <c r="T19">
-        <v>1.130742076925439</v>
+        <v>0.9019428516666667</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.080195272105263</v>
+        <v>1.051578678356165</v>
       </c>
       <c r="D20">
-        <v>0.07967007357894738</v>
+        <v>0.4091111008301371</v>
       </c>
       <c r="E20">
-        <v>0.07967007357894738</v>
+        <v>0.4091111008301371</v>
       </c>
       <c r="F20">
-        <v>1.835661598421052</v>
+        <v>1.172748350684931</v>
       </c>
       <c r="G20">
-        <v>1.835661598421052</v>
+        <v>1.172748350684931</v>
       </c>
       <c r="H20">
-        <v>0.4527248089473684</v>
+        <v>0.8582965761643833</v>
       </c>
       <c r="I20">
-        <v>0.8672365826315787</v>
+        <v>1.065914383287671</v>
       </c>
       <c r="J20">
-        <v>1.265984031578947</v>
+        <v>1.078372487671233</v>
       </c>
       <c r="K20">
-        <v>1.835661598421052</v>
+        <v>1.172748350684931</v>
       </c>
       <c r="L20">
-        <v>1.080195272105263</v>
+        <v>1.051578678356165</v>
       </c>
       <c r="M20">
-        <v>0.5799326728421054</v>
+        <v>0.730344889593151</v>
       </c>
       <c r="N20">
-        <v>0.5799326728421054</v>
+        <v>0.730344889593151</v>
       </c>
       <c r="O20">
-        <v>0.5375300515438597</v>
+        <v>0.7729954517835619</v>
       </c>
       <c r="P20">
-        <v>0.998508981368421</v>
+        <v>0.8778127099570779</v>
       </c>
       <c r="Q20">
-        <v>0.998508981368421</v>
+        <v>0.8778127099570779</v>
       </c>
       <c r="R20">
-        <v>1.207797135631579</v>
+        <v>0.9515466201390412</v>
       </c>
       <c r="S20">
-        <v>1.207797135631579</v>
+        <v>0.9515466201390412</v>
       </c>
       <c r="T20">
-        <v>0.9302453945438597</v>
+        <v>0.9393369294990869</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.8563273687250841</v>
+        <v>1.171402108947368</v>
       </c>
       <c r="D21">
-        <v>2.18679862176494</v>
+        <v>1.164093649394737</v>
       </c>
       <c r="E21">
-        <v>2.18679862176494</v>
+        <v>1.164093649394737</v>
       </c>
       <c r="F21">
-        <v>0.6221858899617387</v>
+        <v>0.7414934505263158</v>
       </c>
       <c r="G21">
-        <v>0.6221858899617387</v>
+        <v>0.7414934505263158</v>
       </c>
       <c r="H21">
-        <v>1.333981246539724</v>
+        <v>0.7807699474210525</v>
       </c>
       <c r="I21">
-        <v>1.077458620113567</v>
+        <v>1.912085023157895</v>
       </c>
       <c r="J21">
-        <v>0.781007349571718</v>
+        <v>1.014608282105263</v>
       </c>
       <c r="K21">
-        <v>0.6221858899617387</v>
+        <v>0.7414934505263158</v>
       </c>
       <c r="L21">
-        <v>0.8563273687250841</v>
+        <v>1.171402108947368</v>
       </c>
       <c r="M21">
-        <v>1.521562995245012</v>
+        <v>1.167747879171053</v>
       </c>
       <c r="N21">
-        <v>1.521562995245012</v>
+        <v>1.167747879171053</v>
       </c>
       <c r="O21">
-        <v>1.459035745676583</v>
+        <v>1.038755235254386</v>
       </c>
       <c r="P21">
-        <v>1.221770626817254</v>
+        <v>1.025663069622807</v>
       </c>
       <c r="Q21">
-        <v>1.221770626817254</v>
+        <v>1.025663069622807</v>
       </c>
       <c r="R21">
-        <v>1.071874442603375</v>
+        <v>0.9546206648486844</v>
       </c>
       <c r="S21">
-        <v>1.071874442603375</v>
+        <v>0.9546206648486844</v>
       </c>
       <c r="T21">
-        <v>1.142959849446129</v>
+        <v>1.130742076925439</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.022670578337719</v>
+        <v>1.080195272105263</v>
       </c>
       <c r="D22">
-        <v>0.6738976979639911</v>
+        <v>0.07967007357894738</v>
       </c>
       <c r="E22">
-        <v>0.6738976979639911</v>
+        <v>0.07967007357894738</v>
       </c>
       <c r="F22">
-        <v>0.9043021779941286</v>
+        <v>1.835661598421052</v>
       </c>
       <c r="G22">
-        <v>0.9043021779941286</v>
+        <v>1.835661598421052</v>
       </c>
       <c r="H22">
-        <v>1.14632668909471</v>
+        <v>0.4527248089473684</v>
       </c>
       <c r="I22">
-        <v>0.658324503583533</v>
+        <v>0.8672365826315787</v>
       </c>
       <c r="J22">
-        <v>0.9921492804894084</v>
+        <v>1.265984031578947</v>
       </c>
       <c r="K22">
-        <v>0.9043021779941286</v>
+        <v>1.835661598421052</v>
       </c>
       <c r="L22">
-        <v>1.022670578337719</v>
+        <v>1.080195272105263</v>
       </c>
       <c r="M22">
-        <v>0.8482841381508548</v>
+        <v>0.5799326728421054</v>
       </c>
       <c r="N22">
-        <v>0.8482841381508548</v>
+        <v>0.5799326728421054</v>
       </c>
       <c r="O22">
-        <v>0.94763165513214</v>
+        <v>0.5375300515438597</v>
       </c>
       <c r="P22">
-        <v>0.8669568180986128</v>
+        <v>0.998508981368421</v>
       </c>
       <c r="Q22">
-        <v>0.8669568180986128</v>
+        <v>0.998508981368421</v>
       </c>
       <c r="R22">
-        <v>0.8762931580724918</v>
+        <v>1.207797135631579</v>
       </c>
       <c r="S22">
-        <v>0.8762931580724918</v>
+        <v>1.207797135631579</v>
       </c>
       <c r="T22">
-        <v>0.8996118212439149</v>
+        <v>0.9302453945438597</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.036560652190417</v>
+        <v>0.8563273687250841</v>
       </c>
       <c r="D23">
-        <v>0.9627291481855711</v>
+        <v>2.18679862176494</v>
       </c>
       <c r="E23">
-        <v>0.9627291481855711</v>
+        <v>2.18679862176494</v>
       </c>
       <c r="F23">
-        <v>0.842034489381037</v>
+        <v>0.6221858899617387</v>
       </c>
       <c r="G23">
-        <v>0.842034489381037</v>
+        <v>0.6221858899617387</v>
       </c>
       <c r="H23">
-        <v>1.133592152021125</v>
+        <v>1.333981246539724</v>
       </c>
       <c r="I23">
-        <v>0.7548606782301578</v>
+        <v>1.077458620113567</v>
       </c>
       <c r="J23">
-        <v>0.9810804220031685</v>
+        <v>0.781007349571718</v>
       </c>
       <c r="K23">
-        <v>0.842034489381037</v>
+        <v>0.6221858899617387</v>
       </c>
       <c r="L23">
-        <v>1.036560652190417</v>
+        <v>0.8563273687250841</v>
       </c>
       <c r="M23">
-        <v>0.9996449001879942</v>
+        <v>1.521562995245012</v>
       </c>
       <c r="N23">
-        <v>0.9996449001879942</v>
+        <v>1.521562995245012</v>
       </c>
       <c r="O23">
-        <v>1.044293984132371</v>
+        <v>1.459035745676583</v>
       </c>
       <c r="P23">
-        <v>0.9471080965856752</v>
+        <v>1.221770626817254</v>
       </c>
       <c r="Q23">
-        <v>0.9471080965856752</v>
+        <v>1.221770626817254</v>
       </c>
       <c r="R23">
-        <v>0.9208396947845157</v>
+        <v>1.071874442603375</v>
       </c>
       <c r="S23">
-        <v>0.9208396947845157</v>
+        <v>1.071874442603375</v>
       </c>
       <c r="T23">
-        <v>0.9518095903352464</v>
+        <v>1.142959849446129</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.865996766667798</v>
+        <v>1.022670578337719</v>
       </c>
       <c r="D24">
-        <v>1.327823093911721</v>
+        <v>0.6738976979639911</v>
       </c>
       <c r="E24">
-        <v>1.327823093911721</v>
+        <v>0.6738976979639911</v>
       </c>
       <c r="F24">
-        <v>1.132955700809852</v>
+        <v>0.9043021779941286</v>
       </c>
       <c r="G24">
-        <v>1.132955700809852</v>
+        <v>0.9043021779941286</v>
       </c>
       <c r="H24">
-        <v>1.01153513116396</v>
+        <v>1.14632668909471</v>
       </c>
       <c r="I24">
-        <v>1.085968139150315</v>
+        <v>0.658324503583533</v>
       </c>
       <c r="J24">
-        <v>0.9442257582167499</v>
+        <v>0.9921492804894084</v>
       </c>
       <c r="K24">
-        <v>1.132955700809852</v>
+        <v>0.9043021779941286</v>
       </c>
       <c r="L24">
-        <v>0.865996766667798</v>
+        <v>1.022670578337719</v>
       </c>
       <c r="M24">
-        <v>1.09690993028976</v>
+        <v>0.8482841381508548</v>
       </c>
       <c r="N24">
-        <v>1.09690993028976</v>
+        <v>0.8482841381508548</v>
       </c>
       <c r="O24">
-        <v>1.068451663914493</v>
+        <v>0.94763165513214</v>
       </c>
       <c r="P24">
-        <v>1.10892518712979</v>
+        <v>0.8669568180986128</v>
       </c>
       <c r="Q24">
-        <v>1.10892518712979</v>
+        <v>0.8669568180986128</v>
       </c>
       <c r="R24">
-        <v>1.114932815549806</v>
+        <v>0.8762931580724918</v>
       </c>
       <c r="S24">
-        <v>1.114932815549806</v>
+        <v>0.8762931580724918</v>
       </c>
       <c r="T24">
-        <v>1.061417431653399</v>
+        <v>0.8996118212439149</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.8003365931818548</v>
+        <v>1.036560652190417</v>
       </c>
       <c r="D25">
-        <v>0.1309991022971287</v>
+        <v>0.9627291481855711</v>
       </c>
       <c r="E25">
-        <v>0.1309991022971287</v>
+        <v>0.9627291481855711</v>
       </c>
       <c r="F25">
-        <v>2.078924960322394</v>
+        <v>0.842034489381037</v>
       </c>
       <c r="G25">
-        <v>2.078924960322394</v>
+        <v>0.842034489381037</v>
       </c>
       <c r="H25">
-        <v>0.6024479572568678</v>
+        <v>1.133592152021125</v>
       </c>
       <c r="I25">
-        <v>0.6118670204080512</v>
+        <v>0.7548606782301578</v>
       </c>
       <c r="J25">
-        <v>1.188447512391932</v>
+        <v>0.9810804220031685</v>
       </c>
       <c r="K25">
-        <v>2.078924960322394</v>
+        <v>0.842034489381037</v>
       </c>
       <c r="L25">
-        <v>0.8003365931818548</v>
+        <v>1.036560652190417</v>
       </c>
       <c r="M25">
-        <v>0.4656678477394917</v>
+        <v>0.9996449001879942</v>
       </c>
       <c r="N25">
-        <v>0.4656678477394917</v>
+        <v>0.9996449001879942</v>
       </c>
       <c r="O25">
-        <v>0.5112612175786171</v>
+        <v>1.044293984132371</v>
       </c>
       <c r="P25">
-        <v>1.003420218600459</v>
+        <v>0.9471080965856752</v>
       </c>
       <c r="Q25">
-        <v>1.003420218600459</v>
+        <v>0.9471080965856752</v>
       </c>
       <c r="R25">
-        <v>1.272296404030943</v>
+        <v>0.9208396947845157</v>
       </c>
       <c r="S25">
-        <v>1.272296404030943</v>
+        <v>0.9208396947845157</v>
       </c>
       <c r="T25">
-        <v>0.9021705243097046</v>
+        <v>0.9518095903352464</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.272094697685036</v>
+        <v>0.865996766667798</v>
       </c>
       <c r="D26">
-        <v>0.7272582044895931</v>
+        <v>1.327823093911721</v>
       </c>
       <c r="E26">
-        <v>0.7272582044895931</v>
+        <v>1.327823093911721</v>
       </c>
       <c r="F26">
-        <v>0.5477031772756894</v>
+        <v>1.132955700809852</v>
       </c>
       <c r="G26">
-        <v>0.5477031772756894</v>
+        <v>1.132955700809852</v>
       </c>
       <c r="H26">
-        <v>0.9488345955961985</v>
+        <v>1.01153513116396</v>
       </c>
       <c r="I26">
-        <v>1.385167796548495</v>
+        <v>1.085968139150315</v>
       </c>
       <c r="J26">
-        <v>1.05403066922133</v>
+        <v>0.9442257582167499</v>
       </c>
       <c r="K26">
-        <v>0.5477031772756894</v>
+        <v>1.132955700809852</v>
       </c>
       <c r="L26">
-        <v>1.272094697685036</v>
+        <v>0.865996766667798</v>
       </c>
       <c r="M26">
-        <v>0.9996764510873148</v>
+        <v>1.09690993028976</v>
       </c>
       <c r="N26">
-        <v>0.9996764510873148</v>
+        <v>1.09690993028976</v>
       </c>
       <c r="O26">
-        <v>0.9827291659236094</v>
+        <v>1.068451663914493</v>
       </c>
       <c r="P26">
-        <v>0.8490186931501064</v>
+        <v>1.10892518712979</v>
       </c>
       <c r="Q26">
-        <v>0.8490186931501063</v>
+        <v>1.10892518712979</v>
       </c>
       <c r="R26">
-        <v>0.7736898141815021</v>
+        <v>1.114932815549806</v>
       </c>
       <c r="S26">
-        <v>0.7736898141815021</v>
+        <v>1.114932815549806</v>
       </c>
       <c r="T26">
-        <v>0.9891815234693905</v>
+        <v>1.061417431653399</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.000182334343681</v>
+        <v>0.8003365931818548</v>
       </c>
       <c r="D27">
-        <v>1.258013279024626</v>
+        <v>0.1309991022971287</v>
       </c>
       <c r="E27">
-        <v>1.258013279024626</v>
+        <v>0.1309991022971287</v>
       </c>
       <c r="F27">
-        <v>1.132450369830342</v>
+        <v>2.078924960322394</v>
       </c>
       <c r="G27">
-        <v>1.132450369830342</v>
+        <v>2.078924960322394</v>
       </c>
       <c r="H27">
-        <v>0.8920946816527768</v>
+        <v>0.6024479572568678</v>
       </c>
       <c r="I27">
-        <v>0.9434529955952303</v>
+        <v>0.6118670204080512</v>
       </c>
       <c r="J27">
-        <v>1.038400009687474</v>
+        <v>1.188447512391932</v>
       </c>
       <c r="K27">
-        <v>1.132450369830342</v>
+        <v>2.078924960322394</v>
       </c>
       <c r="L27">
-        <v>1.000182334343681</v>
+        <v>0.8003365931818548</v>
       </c>
       <c r="M27">
-        <v>1.129097806684154</v>
+        <v>0.4656678477394917</v>
       </c>
       <c r="N27">
-        <v>1.129097806684154</v>
+        <v>0.4656678477394917</v>
       </c>
       <c r="O27">
-        <v>1.050096765007028</v>
+        <v>0.5112612175786171</v>
       </c>
       <c r="P27">
-        <v>1.130215327732883</v>
+        <v>1.003420218600459</v>
       </c>
       <c r="Q27">
-        <v>1.130215327732883</v>
+        <v>1.003420218600459</v>
       </c>
       <c r="R27">
-        <v>1.130774088257248</v>
+        <v>1.272296404030943</v>
       </c>
       <c r="S27">
-        <v>1.130774088257248</v>
+        <v>1.272296404030943</v>
       </c>
       <c r="T27">
-        <v>1.044098945022355</v>
+        <v>0.9021705243097046</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.016447547368965</v>
+        <v>1.272094697685036</v>
       </c>
       <c r="D28">
-        <v>0.8311611950705382</v>
+        <v>0.7272582044895931</v>
       </c>
       <c r="E28">
-        <v>0.8311611950705382</v>
+        <v>0.7272582044895931</v>
       </c>
       <c r="F28">
-        <v>1.109535562814175</v>
+        <v>0.5477031772756894</v>
       </c>
       <c r="G28">
-        <v>1.109535562814175</v>
+        <v>0.5477031772756894</v>
       </c>
       <c r="H28">
-        <v>0.961220190238784</v>
+        <v>0.9488345955961985</v>
       </c>
       <c r="I28">
-        <v>1.021255298589232</v>
+        <v>1.385167796548495</v>
       </c>
       <c r="J28">
-        <v>1.007322563810501</v>
+        <v>1.05403066922133</v>
       </c>
       <c r="K28">
-        <v>1.109535562814175</v>
+        <v>0.5477031772756894</v>
       </c>
       <c r="L28">
-        <v>1.016447547368965</v>
+        <v>1.272094697685036</v>
       </c>
       <c r="M28">
-        <v>0.9238043712197516</v>
+        <v>0.9996764510873148</v>
       </c>
       <c r="N28">
-        <v>0.9238043712197516</v>
+        <v>0.9996764510873148</v>
       </c>
       <c r="O28">
-        <v>0.9362763108927624</v>
+        <v>0.9827291659236094</v>
       </c>
       <c r="P28">
-        <v>0.9857147684178926</v>
+        <v>0.8490186931501064</v>
       </c>
       <c r="Q28">
-        <v>0.9857147684178926</v>
+        <v>0.8490186931501063</v>
       </c>
       <c r="R28">
-        <v>1.016669967016963</v>
+        <v>0.7736898141815021</v>
       </c>
       <c r="S28">
-        <v>1.016669967016963</v>
+        <v>0.7736898141815021</v>
       </c>
       <c r="T28">
-        <v>0.9911570596486992</v>
+        <v>0.9891815234693905</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.000182334343681</v>
+      </c>
+      <c r="D29">
+        <v>1.258013279024626</v>
+      </c>
+      <c r="E29">
+        <v>1.258013279024626</v>
+      </c>
+      <c r="F29">
+        <v>1.132450369830342</v>
+      </c>
+      <c r="G29">
+        <v>1.132450369830342</v>
+      </c>
+      <c r="H29">
+        <v>0.8920946816527768</v>
+      </c>
+      <c r="I29">
+        <v>0.9434529955952303</v>
+      </c>
+      <c r="J29">
+        <v>1.038400009687474</v>
+      </c>
+      <c r="K29">
+        <v>1.132450369830342</v>
+      </c>
+      <c r="L29">
+        <v>1.000182334343681</v>
+      </c>
+      <c r="M29">
+        <v>1.129097806684154</v>
+      </c>
+      <c r="N29">
+        <v>1.129097806684154</v>
+      </c>
+      <c r="O29">
+        <v>1.050096765007028</v>
+      </c>
+      <c r="P29">
+        <v>1.130215327732883</v>
+      </c>
+      <c r="Q29">
+        <v>1.130215327732883</v>
+      </c>
+      <c r="R29">
+        <v>1.130774088257248</v>
+      </c>
+      <c r="S29">
+        <v>1.130774088257248</v>
+      </c>
+      <c r="T29">
+        <v>1.044098945022355</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.016447547368965</v>
+      </c>
+      <c r="D30">
+        <v>0.8311611950705382</v>
+      </c>
+      <c r="E30">
+        <v>0.8311611950705382</v>
+      </c>
+      <c r="F30">
+        <v>1.109535562814175</v>
+      </c>
+      <c r="G30">
+        <v>1.109535562814175</v>
+      </c>
+      <c r="H30">
+        <v>0.961220190238784</v>
+      </c>
+      <c r="I30">
+        <v>1.021255298589232</v>
+      </c>
+      <c r="J30">
+        <v>1.007322563810501</v>
+      </c>
+      <c r="K30">
+        <v>1.109535562814175</v>
+      </c>
+      <c r="L30">
+        <v>1.016447547368965</v>
+      </c>
+      <c r="M30">
+        <v>0.9238043712197516</v>
+      </c>
+      <c r="N30">
+        <v>0.9238043712197516</v>
+      </c>
+      <c r="O30">
+        <v>0.9362763108927624</v>
+      </c>
+      <c r="P30">
+        <v>0.9857147684178926</v>
+      </c>
+      <c r="Q30">
+        <v>0.9857147684178926</v>
+      </c>
+      <c r="R30">
+        <v>1.016669967016963</v>
+      </c>
+      <c r="S30">
+        <v>1.016669967016963</v>
+      </c>
+      <c r="T30">
+        <v>0.9911570596486992</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.813944105371154</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.130960424358047</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.130960424358047</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.457998056494564</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.457998056494564</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.01266033224321</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.8480802737191522</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.9258648566378159</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.457998056494564</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.813944105371154</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.9724522648646006</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9724522648646006</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9858549539908038</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.134300862074588</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.134300862074588</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.215225160679582</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.215225160679582</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.03158467480399</v>
       </c>
     </row>
